--- a/multiplus_simulator/results/qoe_sim1.xlsx
+++ b/multiplus_simulator/results/qoe_sim1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>User1</t>
   </si>
@@ -164,6 +164,156 @@
   </si>
   <si>
     <t>User50</t>
+  </si>
+  <si>
+    <t>User51</t>
+  </si>
+  <si>
+    <t>User52</t>
+  </si>
+  <si>
+    <t>User53</t>
+  </si>
+  <si>
+    <t>User54</t>
+  </si>
+  <si>
+    <t>User55</t>
+  </si>
+  <si>
+    <t>User56</t>
+  </si>
+  <si>
+    <t>User57</t>
+  </si>
+  <si>
+    <t>User58</t>
+  </si>
+  <si>
+    <t>User59</t>
+  </si>
+  <si>
+    <t>User60</t>
+  </si>
+  <si>
+    <t>User61</t>
+  </si>
+  <si>
+    <t>User62</t>
+  </si>
+  <si>
+    <t>User63</t>
+  </si>
+  <si>
+    <t>User64</t>
+  </si>
+  <si>
+    <t>User65</t>
+  </si>
+  <si>
+    <t>User66</t>
+  </si>
+  <si>
+    <t>User67</t>
+  </si>
+  <si>
+    <t>User68</t>
+  </si>
+  <si>
+    <t>User69</t>
+  </si>
+  <si>
+    <t>User70</t>
+  </si>
+  <si>
+    <t>User71</t>
+  </si>
+  <si>
+    <t>User72</t>
+  </si>
+  <si>
+    <t>User73</t>
+  </si>
+  <si>
+    <t>User74</t>
+  </si>
+  <si>
+    <t>User75</t>
+  </si>
+  <si>
+    <t>User76</t>
+  </si>
+  <si>
+    <t>User77</t>
+  </si>
+  <si>
+    <t>User78</t>
+  </si>
+  <si>
+    <t>User79</t>
+  </si>
+  <si>
+    <t>User80</t>
+  </si>
+  <si>
+    <t>User81</t>
+  </si>
+  <si>
+    <t>User82</t>
+  </si>
+  <si>
+    <t>User83</t>
+  </si>
+  <si>
+    <t>User84</t>
+  </si>
+  <si>
+    <t>User85</t>
+  </si>
+  <si>
+    <t>User86</t>
+  </si>
+  <si>
+    <t>User87</t>
+  </si>
+  <si>
+    <t>User88</t>
+  </si>
+  <si>
+    <t>User89</t>
+  </si>
+  <si>
+    <t>User90</t>
+  </si>
+  <si>
+    <t>User91</t>
+  </si>
+  <si>
+    <t>User92</t>
+  </si>
+  <si>
+    <t>User93</t>
+  </si>
+  <si>
+    <t>User94</t>
+  </si>
+  <si>
+    <t>User95</t>
+  </si>
+  <si>
+    <t>User96</t>
+  </si>
+  <si>
+    <t>User97</t>
+  </si>
+  <si>
+    <t>User98</t>
+  </si>
+  <si>
+    <t>User99</t>
+  </si>
+  <si>
+    <t>User100</t>
   </si>
   <si>
     <t>#Users</t>
@@ -519,1269 +669,2535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:41">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>105</v>
+      </c>
+      <c r="V1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063879119723762</v>
+        <v>4.373926822837979</v>
       </c>
       <c r="C2">
-        <v>1.04315442543658</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D2">
-        <v>1.007331297478956</v>
+        <v>4.234288941645742</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.557006557333162</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.965859219497565</v>
       </c>
       <c r="G2">
-        <v>1.063879119723762</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H2">
-        <v>1.041651917138526</v>
+        <v>2.186231800711568</v>
       </c>
       <c r="I2">
-        <v>0.9888607813449256</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.592704375643164</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L2">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M2">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N2">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O2">
-        <v>0.9686543630543183</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q2">
-        <v>1.063879119723762</v>
+        <v>2.81391762801693</v>
       </c>
       <c r="R2">
-        <v>1.042220403815936</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S2">
-        <v>1.004630242898662</v>
+        <v>2.078499349610135</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="V2">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W2">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X2">
+        <v>4.318701990909823</v>
+      </c>
+      <c r="Y2">
+        <v>3.80368197540852</v>
+      </c>
+      <c r="Z2">
+        <v>3.523988933012217</v>
+      </c>
+      <c r="AA2">
+        <v>2.984221113718882</v>
+      </c>
+      <c r="AB2">
+        <v>2.46490202249484</v>
+      </c>
+      <c r="AC2">
+        <v>2.287720783836581</v>
+      </c>
+      <c r="AD2">
+        <v>1.832192543621859</v>
+      </c>
+      <c r="AE2">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AF2">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG2">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH2">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI2">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ2">
+        <v>2.964201993322751</v>
+      </c>
+      <c r="AK2">
+        <v>2.707685720908063</v>
+      </c>
+      <c r="AL2">
+        <v>2.163435918152891</v>
+      </c>
+      <c r="AM2">
+        <v>2.000735284942348</v>
+      </c>
+      <c r="AN2">
+        <v>1.555575233827233</v>
+      </c>
+      <c r="AO2">
+        <v>1.547676148595179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C3">
-        <v>1.043061760259288</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D3">
-        <v>1.007331297478956</v>
+        <v>4.234335762888492</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3.556709979838356</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.965891952559505</v>
       </c>
       <c r="G3">
-        <v>1.063879119723762</v>
+        <v>2.828702725049493</v>
       </c>
       <c r="H3">
-        <v>1.041651917138526</v>
+        <v>2.209043226629031</v>
       </c>
       <c r="I3">
-        <v>0.9888607813449256</v>
+        <v>2.107515759874392</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L3">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M3">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N3">
-        <v>1.025056581907364</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O3">
-        <v>0.9674360913562696</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q3">
-        <v>1.063879119723762</v>
+        <v>2.820083623192998</v>
       </c>
       <c r="R3">
-        <v>1.042220403815936</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S3">
-        <v>1.004862998135761</v>
+        <v>2.07879191057349</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="V3">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W3">
+        <v>4.366294587198146</v>
+      </c>
+      <c r="X3">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y3">
+        <v>1.692203146820023</v>
+      </c>
+      <c r="Z3">
+        <v>1.406905907909987</v>
+      </c>
+      <c r="AA3">
+        <v>1.029550562421883</v>
+      </c>
+      <c r="AB3">
+        <v>0.6075934169608108</v>
+      </c>
+      <c r="AC3">
+        <v>0.4065794749086777</v>
+      </c>
+      <c r="AD3">
+        <v>0.07080857392685314</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG3">
+        <v>4.36393211605592</v>
+      </c>
+      <c r="AH3">
+        <v>4.223266323365979</v>
+      </c>
+      <c r="AI3">
+        <v>3.547017708815704</v>
+      </c>
+      <c r="AJ3">
+        <v>2.961681759572864</v>
+      </c>
+      <c r="AK3">
+        <v>2.709366423252122</v>
+      </c>
+      <c r="AL3">
+        <v>2.163438602589406</v>
+      </c>
+      <c r="AM3">
+        <v>1.998413930235124</v>
+      </c>
+      <c r="AN3">
+        <v>1.555606729577434</v>
+      </c>
+      <c r="AO3">
+        <v>1.538299942299206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C4">
-        <v>1.04315442543658</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D4">
-        <v>1.007762976878079</v>
+        <v>4.234358058291178</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3.556737614238143</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.963176366155389</v>
       </c>
       <c r="G4">
-        <v>1.063879119723762</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H4">
-        <v>1.041651917138526</v>
+        <v>2.216405237005957</v>
       </c>
       <c r="I4">
-        <v>0.9885020446512783</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.594636072907064</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="L4">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M4">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N4">
-        <v>1.025193550437113</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O4">
-        <v>0.9680497855920076</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q4">
-        <v>1.063879119723762</v>
+        <v>2.820560472840559</v>
       </c>
       <c r="R4">
-        <v>1.042314553449994</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S4">
-        <v>1.004862998135761</v>
+        <v>2.07563829944187</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="V4">
+        <v>4.373926822837979</v>
+      </c>
+      <c r="W4">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X4">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y4">
+        <v>3.803223382175367</v>
+      </c>
+      <c r="Z4">
+        <v>3.52401313629001</v>
+      </c>
+      <c r="AA4">
+        <v>2.984422180526256</v>
+      </c>
+      <c r="AB4">
+        <v>2.461777394904716</v>
+      </c>
+      <c r="AC4">
+        <v>2.283893526255707</v>
+      </c>
+      <c r="AD4">
+        <v>1.832788297959721</v>
+      </c>
+      <c r="AE4">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AF4">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG4">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH4">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI4">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ4">
+        <v>2.964090486523641</v>
+      </c>
+      <c r="AK4">
+        <v>2.707543673471722</v>
+      </c>
+      <c r="AL4">
+        <v>2.161749536159001</v>
+      </c>
+      <c r="AM4">
+        <v>2.000834413937731</v>
+      </c>
+      <c r="AN4">
+        <v>1.55566691758971</v>
+      </c>
+      <c r="AO4">
+        <v>1.547858198211943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063946860443778</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C5">
-        <v>1.043246929984974</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D5">
-        <v>1.007547763174238</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.549387921390026</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.961836994852453</v>
       </c>
       <c r="G5">
-        <v>1.063879119723762</v>
+        <v>2.596336265364021</v>
       </c>
       <c r="H5">
-        <v>1.041651917138526</v>
+        <v>2.182990722080756</v>
       </c>
       <c r="I5">
-        <v>0.9885020446512783</v>
+        <v>1.837588018796622</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.592741017546938</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.338486519215443</v>
       </c>
       <c r="L5">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M5">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N5">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O5">
-        <v>0.9686543630543183</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q5">
-        <v>1.063879119723762</v>
+        <v>2.820077785544918</v>
       </c>
       <c r="R5">
-        <v>1.042220403815936</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S5">
-        <v>1.004862998135761</v>
+        <v>2.08151613777407</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="V5">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W5">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG5">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH5">
+        <v>0.7589167167105833</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C6">
-        <v>1.04315442543658</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D6">
-        <v>1.007331297478956</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3.557036880055485</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.977873824243928</v>
       </c>
       <c r="G6">
-        <v>1.063879119723762</v>
+        <v>2.828526267252435</v>
       </c>
       <c r="H6">
-        <v>1.041651917138526</v>
+        <v>2.175968539560767</v>
       </c>
       <c r="I6">
-        <v>0.9888607813449256</v>
+        <v>2.11677358281847</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.59623660551706</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="L6">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M6">
-        <v>1.048194343718027</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N6">
-        <v>1.025330064300367</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O6">
-        <v>0.9698371278876869</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q6">
-        <v>1.063879119723762</v>
+        <v>2.81421292548184</v>
       </c>
       <c r="R6">
-        <v>1.042220403815936</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S6">
-        <v>1.004862998135761</v>
+        <v>2.072759241147105</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="V6">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W6">
+        <v>4.366294587198146</v>
+      </c>
+      <c r="X6">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y6">
+        <v>1.710977477662717</v>
+      </c>
+      <c r="Z6">
+        <v>1.453329825679285</v>
+      </c>
+      <c r="AA6">
+        <v>1.006764426948562</v>
+      </c>
+      <c r="AB6">
+        <v>0.5951775344946697</v>
+      </c>
+      <c r="AC6">
+        <v>0.3630923143521125</v>
+      </c>
+      <c r="AD6">
+        <v>0.06893696177181652</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG6">
+        <v>4.36393211605592</v>
+      </c>
+      <c r="AH6">
+        <v>2.156362162427975</v>
+      </c>
+      <c r="AI6">
+        <v>1.613609927742642</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5991689081235485</v>
+      </c>
+      <c r="AK6">
+        <v>0.3393680766766074</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C7">
-        <v>1.043061760259288</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D7">
-        <v>1.007547763174238</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3.557126927292528</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.962994756132161</v>
       </c>
       <c r="G7">
-        <v>1.063879119723762</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H7">
-        <v>1.041651917138526</v>
+        <v>2.209398245603904</v>
       </c>
       <c r="I7">
-        <v>0.9888607813449256</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.592554968356229</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="L7">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M7">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N7">
-        <v>1.025193550437113</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O7">
-        <v>0.9674360913562696</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q7">
-        <v>1.063879119723762</v>
+        <v>2.817570709928887</v>
       </c>
       <c r="R7">
-        <v>1.042220403815936</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S7">
-        <v>1.004630242898662</v>
+        <v>2.081492863656507</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="V7">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W7">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X7">
+        <v>4.318812859991644</v>
+      </c>
+      <c r="Y7">
+        <v>3.802978776899488</v>
+      </c>
+      <c r="Z7">
+        <v>3.524145093146369</v>
+      </c>
+      <c r="AA7">
+        <v>2.984462200096948</v>
+      </c>
+      <c r="AB7">
+        <v>2.465307727125164</v>
+      </c>
+      <c r="AC7">
+        <v>2.287795048796673</v>
+      </c>
+      <c r="AD7">
+        <v>1.828455119314675</v>
+      </c>
+      <c r="AE7">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AF7">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG7">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH7">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI7">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ7">
+        <v>2.964042607006016</v>
+      </c>
+      <c r="AK7">
+        <v>2.707855834438489</v>
+      </c>
+      <c r="AL7">
+        <v>2.161226206792072</v>
+      </c>
+      <c r="AM7">
+        <v>1.997971373124352</v>
+      </c>
+      <c r="AN7">
+        <v>1.555611737273428</v>
+      </c>
+      <c r="AO7">
+        <v>1.547676148595179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C8">
-        <v>1.04315442543658</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D8">
-        <v>1.007331297478956</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3.557017581368658</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.963400271456822</v>
       </c>
       <c r="G8">
-        <v>1.063879119723762</v>
+        <v>2.738493278449103</v>
       </c>
       <c r="H8">
-        <v>1.041651917138526</v>
+        <v>2.185961989560298</v>
       </c>
       <c r="I8">
-        <v>0.9888607813449256</v>
+        <v>1.995093958967949</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.592613839808342</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.544592712910749</v>
       </c>
       <c r="L8">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M8">
-        <v>1.048194343718027</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N8">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O8">
-        <v>0.9674360913562696</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q8">
-        <v>1.063879119723762</v>
+        <v>2.816994446055507</v>
       </c>
       <c r="R8">
-        <v>1.042314553449994</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S8">
-        <v>1.004862998135761</v>
+        <v>2.072870042895973</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="V8">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W8">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X8">
+        <v>2.044563475349688</v>
+      </c>
+      <c r="Y8">
+        <v>0.6059153286246688</v>
+      </c>
+      <c r="Z8">
+        <v>0.2286179426484236</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG8">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH8">
+        <v>1.890482823907332</v>
+      </c>
+      <c r="AI8">
+        <v>0.5577183007593693</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C9">
-        <v>1.04315442543658</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D9">
-        <v>1.007547763174238</v>
+        <v>4.234075067904211</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3.55707114403521</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.963105044950152</v>
       </c>
       <c r="G9">
-        <v>1.063879119723762</v>
+        <v>2.847785927001569</v>
       </c>
       <c r="H9">
-        <v>1.041651917138526</v>
+        <v>2.186296463617851</v>
       </c>
       <c r="I9">
-        <v>0.9885020446512783</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.592968582310109</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L9">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M9">
-        <v>1.048194343718027</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N9">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O9">
-        <v>0.9686543630543183</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q9">
-        <v>1.063879119723762</v>
+        <v>2.814317731804815</v>
       </c>
       <c r="R9">
-        <v>1.042314553449994</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S9">
-        <v>1.004862998135761</v>
+        <v>2.072738452452145</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="V9">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W9">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X9">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y9">
+        <v>3.804267972685027</v>
+      </c>
+      <c r="Z9">
+        <v>3.524073708818394</v>
+      </c>
+      <c r="AA9">
+        <v>2.98441210870031</v>
+      </c>
+      <c r="AB9">
+        <v>2.465832342171066</v>
+      </c>
+      <c r="AC9">
+        <v>2.287770642952991</v>
+      </c>
+      <c r="AD9">
+        <v>1.835110454665973</v>
+      </c>
+      <c r="AE9">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AF9">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG9">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH9">
+        <v>4.223266323365979</v>
+      </c>
+      <c r="AI9">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ9">
+        <v>2.963997663745993</v>
+      </c>
+      <c r="AK9">
+        <v>2.707713399844007</v>
+      </c>
+      <c r="AL9">
+        <v>2.161861871563519</v>
+      </c>
+      <c r="AM9">
+        <v>1.998984430786711</v>
+      </c>
+      <c r="AN9">
+        <v>1.555726536290867</v>
+      </c>
+      <c r="AO9">
+        <v>1.547676148595179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C10">
-        <v>1.04315442543658</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D10">
-        <v>1.007331297478957</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3.556972455127322</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.963384334476976</v>
       </c>
       <c r="G10">
-        <v>1.063879119723762</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H10">
-        <v>1.041651917138526</v>
+        <v>2.186272647825842</v>
       </c>
       <c r="I10">
-        <v>0.9888607813449267</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.592866305558437</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="L10">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M10">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N10">
-        <v>1.025193550437113</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O10">
-        <v>0.9680497855920074</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q10">
-        <v>1.063879119723762</v>
+        <v>2.810742458887774</v>
       </c>
       <c r="R10">
-        <v>1.042314553449994</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S10">
-        <v>1.004630242898663</v>
+        <v>2.067053473195678</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="V10">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W10">
+        <v>4.366404453216329</v>
+      </c>
+      <c r="X10">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y10">
+        <v>3.803514595326453</v>
+      </c>
+      <c r="Z10">
+        <v>3.524085862704005</v>
+      </c>
+      <c r="AA10">
+        <v>2.98435408995759</v>
+      </c>
+      <c r="AB10">
+        <v>2.46511516330206</v>
+      </c>
+      <c r="AC10">
+        <v>2.284154569955132</v>
+      </c>
+      <c r="AD10">
+        <v>1.832648643707672</v>
+      </c>
+      <c r="AE10">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AF10">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG10">
+        <v>4.36393211605592</v>
+      </c>
+      <c r="AH10">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI10">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ10">
+        <v>2.964093097174433</v>
+      </c>
+      <c r="AK10">
+        <v>2.707739171752128</v>
+      </c>
+      <c r="AL10">
+        <v>2.142915728954249</v>
+      </c>
+      <c r="AM10">
+        <v>2.007004493025938</v>
+      </c>
+      <c r="AN10">
+        <v>1.553114859645449</v>
+      </c>
+      <c r="AO10">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C11">
-        <v>1.043061760259288</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D11">
-        <v>1.007331297478956</v>
+        <v>4.234340752910755</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.55670130223851</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.973014491660773</v>
       </c>
       <c r="G11">
-        <v>1.063879119723762</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H11">
-        <v>1.041651917138526</v>
+        <v>2.186266789049145</v>
       </c>
       <c r="I11">
-        <v>0.9888607813449256</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.594636428607957</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="L11">
-        <v>1.063879119723762</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M11">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N11">
-        <v>1.025330064300367</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O11">
-        <v>0.9680497855920076</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q11">
-        <v>1.063879119723762</v>
+        <v>2.811189167736492</v>
       </c>
       <c r="R11">
-        <v>1.042220403815936</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S11">
-        <v>1.004630242898662</v>
+        <v>2.066838299006063</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="V11">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="W11">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X11">
+        <v>4.318812859991644</v>
+      </c>
+      <c r="Y11">
+        <v>3.803247465658492</v>
+      </c>
+      <c r="Z11">
+        <v>3.524008848151579</v>
+      </c>
+      <c r="AA11">
+        <v>2.98441210870031</v>
+      </c>
+      <c r="AB11">
+        <v>2.46519154387331</v>
+      </c>
+      <c r="AC11">
+        <v>2.28787872448394</v>
+      </c>
+      <c r="AD11">
+        <v>1.835300169337446</v>
+      </c>
+      <c r="AE11">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AF11">
+        <v>4.37387193963919</v>
+      </c>
+      <c r="AG11">
+        <v>4.36393211605592</v>
+      </c>
+      <c r="AH11">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI11">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ11">
+        <v>2.963939666625735</v>
+      </c>
+      <c r="AK11">
+        <v>2.707700760074699</v>
+      </c>
+      <c r="AL11">
+        <v>2.161276773500787</v>
+      </c>
+      <c r="AM11">
+        <v>1.99830032684354</v>
+      </c>
+      <c r="AN11">
+        <v>1.555749839918296</v>
+      </c>
+      <c r="AO11">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.04315442543658</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D12">
-        <v>1.007331297478956</v>
+        <v>4.234210155477576</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.556897961696057</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.972941587170845</v>
+      </c>
+      <c r="G12">
+        <v>2.847837339024479</v>
       </c>
       <c r="H12">
-        <v>1.041651917138526</v>
+        <v>2.210654776522084</v>
       </c>
       <c r="I12">
-        <v>0.9888607813449256</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.592740282958273</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="M12">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N12">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O12">
-        <v>0.9686543630543183</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q12">
+        <v>2.811030568853648</v>
       </c>
       <c r="R12">
-        <v>1.042220403815936</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S12">
-        <v>1.004862998135761</v>
+        <v>2.07270147517709</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="W12">
+        <v>4.366294587198146</v>
+      </c>
+      <c r="X12">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y12">
+        <v>3.803726844255578</v>
+      </c>
+      <c r="Z12">
+        <v>3.524020117308408</v>
+      </c>
+      <c r="AA12">
+        <v>2.984459001282825</v>
+      </c>
+      <c r="AB12">
+        <v>2.464927543049746</v>
+      </c>
+      <c r="AC12">
+        <v>2.287606736550046</v>
+      </c>
+      <c r="AD12">
+        <v>1.822711682004565</v>
+      </c>
+      <c r="AE12">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AG12">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH12">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI12">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ12">
+        <v>2.964119711055963</v>
+      </c>
+      <c r="AK12">
+        <v>2.7078047286066</v>
+      </c>
+      <c r="AL12">
+        <v>2.161559299137279</v>
+      </c>
+      <c r="AM12">
+        <v>2.000796727449904</v>
+      </c>
+      <c r="AN12">
+        <v>1.555541346245222</v>
+      </c>
+      <c r="AO12">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.04315442543658</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D13">
-        <v>1.007331297478956</v>
+        <v>4.234032391303511</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.557105140404904</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.963407104726925</v>
+      </c>
+      <c r="G13">
+        <v>2.847837339024479</v>
       </c>
       <c r="H13">
-        <v>1.041651917138526</v>
+        <v>2.186307570211587</v>
       </c>
       <c r="I13">
-        <v>0.9888607813449256</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.592624780833807</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="M13">
-        <v>1.048194343718027</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N13">
-        <v>1.025330064300367</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O13">
-        <v>0.9680497855920076</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q13">
+        <v>2.814243851223752</v>
       </c>
       <c r="R13">
-        <v>1.042220403815936</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S13">
-        <v>1.004630242898662</v>
+        <v>2.075726190642336</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="W13">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X13">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y13">
+        <v>3.804368139004889</v>
+      </c>
+      <c r="Z13">
+        <v>3.52434884277588</v>
+      </c>
+      <c r="AA13">
+        <v>2.98441210870031</v>
+      </c>
+      <c r="AB13">
+        <v>2.465240355552095</v>
+      </c>
+      <c r="AC13">
+        <v>2.28780414085369</v>
+      </c>
+      <c r="AD13">
+        <v>1.831808899146264</v>
+      </c>
+      <c r="AE13">
+        <v>1.600690009336849</v>
+      </c>
+      <c r="AG13">
+        <v>4.36393211605592</v>
+      </c>
+      <c r="AH13">
+        <v>4.223266323365979</v>
+      </c>
+      <c r="AI13">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ13">
+        <v>2.964505525830369</v>
+      </c>
+      <c r="AK13">
+        <v>2.70768121794368</v>
+      </c>
+      <c r="AL13">
+        <v>2.161233756724582</v>
+      </c>
+      <c r="AM13">
+        <v>1.998577319365936</v>
+      </c>
+      <c r="AN13">
+        <v>1.553013101127724</v>
+      </c>
+      <c r="AO13">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.04315442543658</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D14">
-        <v>1.007547763174238</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.556992201999555</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.960905231791801</v>
+      </c>
+      <c r="G14">
+        <v>2.808202399626215</v>
       </c>
       <c r="H14">
-        <v>1.041651917138526</v>
+        <v>2.186048322557178</v>
       </c>
       <c r="I14">
-        <v>0.9888607813449256</v>
+        <v>2.091792417123779</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.592629637661741</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="M14">
-        <v>1.048194343718027</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N14">
-        <v>1.025056581907364</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O14">
-        <v>0.9680497855920076</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q14">
+        <v>2.817211048585158</v>
       </c>
       <c r="R14">
-        <v>1.042314553449994</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S14">
-        <v>1.004630242898662</v>
+        <v>2.075547558156596</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="W14">
+        <v>4.366294587198146</v>
+      </c>
+      <c r="X14">
+        <v>2.178393706963173</v>
+      </c>
+      <c r="Y14">
+        <v>1.669722395093068</v>
+      </c>
+      <c r="Z14">
+        <v>1.440485131052123</v>
+      </c>
+      <c r="AA14">
+        <v>1.0495827537517</v>
+      </c>
+      <c r="AB14">
+        <v>0.5962326847537127</v>
+      </c>
+      <c r="AC14">
+        <v>0.4526570594177151</v>
+      </c>
+      <c r="AD14">
+        <v>0.07956442451162804</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH14">
+        <v>2.104869035170059</v>
+      </c>
+      <c r="AI14">
+        <v>1.57108065950981</v>
+      </c>
+      <c r="AJ14">
+        <v>1.065965165923234</v>
+      </c>
+      <c r="AK14">
+        <v>0.8406946704968492</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.04315442543658</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D15">
-        <v>1.007331297478956</v>
+        <v>4.234170032748971</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3.556961227112405</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.963469613149022</v>
+      </c>
+      <c r="G15">
+        <v>2.847940162254289</v>
       </c>
       <c r="H15">
-        <v>1.041651917138526</v>
+        <v>2.186162521161317</v>
       </c>
       <c r="I15">
-        <v>0.9888607813449256</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.592567635187452</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="M15">
-        <v>1.048194343718027</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N15">
-        <v>1.025330064300367</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O15">
-        <v>0.9680497855920076</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q15">
+        <v>2.810786576958032</v>
       </c>
       <c r="R15">
-        <v>1.042314553449994</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S15">
-        <v>1.004862998135761</v>
+        <v>2.081285090222347</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="W15">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X15">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y15">
+        <v>3.803716460752967</v>
+      </c>
+      <c r="Z15">
+        <v>3.524109629793996</v>
+      </c>
+      <c r="AA15">
+        <v>2.98436201706678</v>
+      </c>
+      <c r="AB15">
+        <v>2.468346213642131</v>
+      </c>
+      <c r="AC15">
+        <v>2.2877041426837</v>
+      </c>
+      <c r="AD15">
+        <v>1.827677926590858</v>
+      </c>
+      <c r="AE15">
+        <v>1.60072992732623</v>
+      </c>
+      <c r="AG15">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH15">
+        <v>4.223266323365979</v>
+      </c>
+      <c r="AI15">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ15">
+        <v>2.964404059540962</v>
+      </c>
+      <c r="AK15">
+        <v>2.707661418186483</v>
+      </c>
+      <c r="AL15">
+        <v>2.16164683606846</v>
+      </c>
+      <c r="AM15">
+        <v>1.998651764315626</v>
+      </c>
+      <c r="AN15">
+        <v>1.555814629754837</v>
+      </c>
+      <c r="AO15">
+        <v>1.547676148595179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.042220403815936</v>
+        <v>4.340433460654282</v>
       </c>
       <c r="D16">
-        <v>1.004160297575708</v>
+        <v>4.219985290806386</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3.551722456284443</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.922470961933288</v>
+      </c>
+      <c r="G16">
+        <v>2.618942944862793</v>
       </c>
       <c r="H16">
-        <v>1.041747096787062</v>
+        <v>0.3226521746906597</v>
       </c>
       <c r="I16">
-        <v>0.989216126542858</v>
+        <v>0.1425105842747012</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.416180927132634</v>
       </c>
       <c r="M16">
-        <v>1.0425959951379</v>
+        <v>4.363437560210583</v>
       </c>
       <c r="N16">
-        <v>1.016865951760459</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O16">
-        <v>0.9122434990573892</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.851949420564865</v>
+      </c>
+      <c r="Q16">
+        <v>2.814283552283976</v>
       </c>
       <c r="R16">
-        <v>1.04184210244375</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S16">
-        <v>1.003202119947885</v>
+        <v>2.064192807804992</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="W16">
+        <v>4.298390499006611</v>
+      </c>
+      <c r="X16">
+        <v>0.03378128296075955</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>4.340212657042962</v>
+      </c>
+      <c r="AH16">
+        <v>2.141740398160159</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.042968933607929</v>
+        <v>4.363712317098973</v>
       </c>
       <c r="D17">
-        <v>1.00689454900391</v>
+        <v>4.223491901633532</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3.544420082257752</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.949001341233791</v>
+      </c>
+      <c r="G17">
+        <v>2.847220376793823</v>
       </c>
       <c r="H17">
-        <v>1.041747096787062</v>
+        <v>2.217092793157532</v>
       </c>
       <c r="I17">
-        <v>0.989216126542858</v>
+        <v>2.129457559813322</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.559103152258612</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.545855550953037</v>
       </c>
       <c r="M17">
-        <v>1.047769675776071</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N17">
-        <v>1.02422501529636</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O17">
-        <v>0.9642216998946141</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q17">
+        <v>2.814358602800042</v>
       </c>
       <c r="R17">
-        <v>1.042314553449994</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S17">
-        <v>1.004630242898662</v>
+        <v>2.072463588620794</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="W17">
+        <v>4.341702966222478</v>
+      </c>
+      <c r="X17">
+        <v>4.277862076756742</v>
+      </c>
+      <c r="Y17">
+        <v>3.791780866687366</v>
+      </c>
+      <c r="Z17">
+        <v>3.509728068616568</v>
+      </c>
+      <c r="AA17">
+        <v>2.902931418227242</v>
+      </c>
+      <c r="AB17">
+        <v>0.4515594622529031</v>
+      </c>
+      <c r="AC17">
+        <v>0.1513084154001128</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH17">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI17">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ17">
+        <v>2.945008818735724</v>
+      </c>
+      <c r="AK17">
+        <v>1.170798553759591</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>1.998982089246184</v>
+      </c>
+      <c r="AN17">
+        <v>1.55576526057922</v>
+      </c>
+      <c r="AO17">
+        <v>1.547630635902873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.04184210244375</v>
+        <v>4.315419687806328</v>
       </c>
       <c r="D18">
-        <v>1.002958647398784</v>
+        <v>4.182858702753354</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3.516469024032479</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.920787256319981</v>
+      </c>
+      <c r="G18">
+        <v>0.680241214278098</v>
       </c>
       <c r="H18">
-        <v>1.041651917138526</v>
+        <v>0.3408944997245218</v>
       </c>
       <c r="I18">
-        <v>0.989216126542858</v>
+        <v>1.825282810936137</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.555378775650327</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.514232988308096</v>
       </c>
       <c r="M18">
-        <v>1.0425959951379</v>
+        <v>4.363437560210583</v>
       </c>
       <c r="N18">
-        <v>1.0214731421349</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O18">
-        <v>0.9536370775519365</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q18">
+        <v>2.823854391123372</v>
       </c>
       <c r="R18">
-        <v>1.04184210244375</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S18">
-        <v>1.004862998135761</v>
+        <v>2.084632557506274</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="W18">
+        <v>4.298390499006611</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>4.340157455212246</v>
+      </c>
+      <c r="AH18">
+        <v>1.509473297247159</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.043061760259288</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D19">
-        <v>1.007331297478956</v>
+        <v>4.223886648098095</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3.556845941504552</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.963183558171428</v>
+      </c>
+      <c r="G19">
+        <v>2.84696329763263</v>
       </c>
       <c r="H19">
-        <v>1.041651917138526</v>
+        <v>2.216950687777633</v>
       </c>
       <c r="I19">
-        <v>0.989216126542858</v>
+        <v>2.130440160143372</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.561386444924938</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.546083135753841</v>
       </c>
       <c r="M19">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N19">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O19">
-        <v>0.9491265277777781</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.851949420564865</v>
+      </c>
+      <c r="Q19">
+        <v>2.814265622089531</v>
       </c>
       <c r="R19">
-        <v>1.042220403815936</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S19">
-        <v>1.004862998135761</v>
+        <v>2.084233120258503</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>1.544125812096084</v>
+      </c>
+      <c r="W19">
+        <v>4.366294587198146</v>
+      </c>
+      <c r="X19">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y19">
+        <v>3.803414163486266</v>
+      </c>
+      <c r="Z19">
+        <v>3.524097808070689</v>
+      </c>
+      <c r="AA19">
+        <v>0.86880309689089</v>
+      </c>
+      <c r="AB19">
+        <v>0.4836980162708815</v>
+      </c>
+      <c r="AC19">
+        <v>0.1421181892687213</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1.543564817651855</v>
+      </c>
+      <c r="AG19">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH19">
+        <v>4.223266323365979</v>
+      </c>
+      <c r="AI19">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ19">
+        <v>2.952238059504526</v>
+      </c>
+      <c r="AK19">
+        <v>1.144229714796274</v>
+      </c>
+      <c r="AL19">
+        <v>2.208666359780425</v>
+      </c>
+      <c r="AM19">
+        <v>1.983524196333662</v>
+      </c>
+      <c r="AN19">
+        <v>1.542719029070173</v>
+      </c>
+      <c r="AO19">
+        <v>1.52850866039338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.04315442543658</v>
+        <v>4.364206856561549</v>
       </c>
       <c r="D20">
-        <v>1.007547763174238</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.556742492318198</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.963449347858907</v>
+      </c>
+      <c r="G20">
+        <v>2.762197709274373</v>
       </c>
       <c r="H20">
-        <v>1.041651917138526</v>
+        <v>2.186376265873677</v>
       </c>
       <c r="I20">
-        <v>0.9888607813449256</v>
+        <v>2.014185226625393</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.592811150092188</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="M20">
-        <v>1.048363358869812</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N20">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O20">
-        <v>0.9686543630543183</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q20">
+        <v>2.810702954655429</v>
       </c>
       <c r="R20">
-        <v>1.042220403815936</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S20">
-        <v>1.004630242898662</v>
+        <v>2.075533994011851</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="W20">
+        <v>4.366349520388908</v>
+      </c>
+      <c r="X20">
+        <v>1.031312403336326</v>
+      </c>
+      <c r="Y20">
+        <v>0.1342222556924719</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>4.363987064885042</v>
+      </c>
+      <c r="AH20">
+        <v>1.287458374639002</v>
+      </c>
+      <c r="AI20">
+        <v>0.09997443396523309</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.043061760259288</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D21">
-        <v>1.007331297478956</v>
+        <v>4.234340372922116</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3.557123977854377</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.96323078048769</v>
+      </c>
+      <c r="G21">
+        <v>2.820979907613853</v>
       </c>
       <c r="H21">
-        <v>1.041651917138526</v>
+        <v>2.186125924563483</v>
       </c>
       <c r="I21">
-        <v>0.9888607813449256</v>
+        <v>2.109104364217951</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.592860797426775</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="M21">
-        <v>1.048278911584301</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N21">
-        <v>1.025056581907364</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O21">
-        <v>0.9680497855920076</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q21">
+        <v>2.817112154000809</v>
       </c>
       <c r="R21">
-        <v>1.042220403815936</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S21">
-        <v>1.004630242898662</v>
+        <v>2.078842085454277</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="W21">
+        <v>4.366294587198146</v>
+      </c>
+      <c r="X21">
+        <v>1.697541626978595</v>
+      </c>
+      <c r="Y21">
+        <v>1.76919356119233</v>
+      </c>
+      <c r="Z21">
+        <v>1.584687363613907</v>
+      </c>
+      <c r="AA21">
+        <v>1.183217584256633</v>
+      </c>
+      <c r="AB21">
+        <v>0.2376375463492375</v>
+      </c>
+      <c r="AC21">
+        <v>0.5579512909963515</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>4.36393211605592</v>
+      </c>
+      <c r="AH21">
+        <v>1.648608045887107</v>
+      </c>
+      <c r="AI21">
+        <v>1.106521574563282</v>
+      </c>
+      <c r="AJ21">
+        <v>0.6580705882363482</v>
+      </c>
+      <c r="AK21">
+        <v>0.4296966305602472</v>
+      </c>
+      <c r="AL21">
+        <v>0.01902562097514182</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>0.9906047807445099</v>
+        <v>4.135998709217261</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1.418487777591225</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.7585700145128524</v>
+      </c>
+      <c r="G22">
+        <v>0.5824676721859861</v>
+      </c>
+      <c r="H22">
+        <v>0.09095695500393108</v>
       </c>
       <c r="I22">
-        <v>0.9885020446512797</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1790,121 +3206,301 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9938662007457995</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q22">
+        <v>2.804316273079109</v>
+      </c>
+      <c r="R22">
+        <v>2.13623577849229</v>
       </c>
       <c r="S22">
-        <v>0.9906047807445099</v>
+        <v>2.075155554840408</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>1.544125812096084</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0.794911274995906</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>1.007331297478956</v>
+        <v>4.234351408564529</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.557071789635875</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.96632739408702</v>
+      </c>
+      <c r="G23">
+        <v>2.847940162254289</v>
+      </c>
+      <c r="H23">
+        <v>2.186037187311582</v>
       </c>
       <c r="I23">
-        <v>0.9888607813449256</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.592606292153988</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="N23">
-        <v>1.025330064300367</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O23">
-        <v>0.9686543630543183</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q23">
+        <v>2.817496960256967</v>
+      </c>
+      <c r="R23">
+        <v>2.136333983960265</v>
       </c>
       <c r="S23">
-        <v>1.004630242898662</v>
+        <v>2.069630662354457</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="X23">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y23">
+        <v>3.799183167730221</v>
+      </c>
+      <c r="Z23">
+        <v>3.524186004290778</v>
+      </c>
+      <c r="AA23">
+        <v>2.984485627405547</v>
+      </c>
+      <c r="AB23">
+        <v>2.464791766571254</v>
+      </c>
+      <c r="AC23">
+        <v>2.288446102191804</v>
+      </c>
+      <c r="AD23">
+        <v>1.825339184673523</v>
+      </c>
+      <c r="AE23">
+        <v>1.60072992732623</v>
+      </c>
+      <c r="AH23">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI23">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ23">
+        <v>2.958621505835954</v>
+      </c>
+      <c r="AK23">
+        <v>2.707597619818675</v>
+      </c>
+      <c r="AL23">
+        <v>2.161823100917641</v>
+      </c>
+      <c r="AM23">
+        <v>1.998816511828764</v>
+      </c>
+      <c r="AN23">
+        <v>1.555764260847511</v>
+      </c>
+      <c r="AO23">
+        <v>1.547858198211943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>1.007331297478956</v>
+        <v>4.234155304249451</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3.556911641166987</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.96346433192976</v>
+      </c>
+      <c r="G24">
+        <v>2.759255491383324</v>
+      </c>
+      <c r="H24">
+        <v>2.186092445881075</v>
       </c>
       <c r="I24">
-        <v>0.9888607813449256</v>
+        <v>2.023142800241143</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.594724737137842</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="N24">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O24">
-        <v>0.9686543630543183</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q24">
+        <v>2.820455190424242</v>
+      </c>
+      <c r="R24">
+        <v>2.136284881331725</v>
       </c>
       <c r="S24">
-        <v>1.004630242898662</v>
+        <v>2.069851854385345</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="X24">
+        <v>1.016161299486506</v>
+      </c>
+      <c r="Y24">
+        <v>0.78227902064874</v>
+      </c>
+      <c r="Z24">
+        <v>0.5086048686228821</v>
+      </c>
+      <c r="AA24">
+        <v>0.2155625126266645</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>2.051732815119548</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="D25">
-        <v>0.9906047807445088</v>
+        <v>4.142815232984333</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.40585217480383</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.8260717408344396</v>
+      </c>
+      <c r="G25">
+        <v>0.7577265700360014</v>
+      </c>
+      <c r="H25">
+        <v>0.1239920878044831</v>
       </c>
       <c r="I25">
-        <v>0.9885020446512783</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1913,395 +3509,1058 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9938662007457983</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q25">
+        <v>2.801742936599265</v>
+      </c>
+      <c r="R25">
+        <v>2.13623577849229</v>
       </c>
       <c r="S25">
-        <v>0.9906047807445088</v>
+        <v>2.087513645433103</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>1.544125812096084</v>
+      </c>
+      <c r="X25">
+        <v>0.7958766240585051</v>
+      </c>
+      <c r="Y25">
+        <v>0.26727903954882</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>2.112758601365317</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="D26">
-        <v>1.007547763174238</v>
+        <v>4.234350330373252</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.556741952161649</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.96422686621906</v>
+      </c>
+      <c r="G26">
+        <v>2.841364461189164</v>
+      </c>
+      <c r="H26">
+        <v>2.185994381136242</v>
       </c>
       <c r="I26">
-        <v>0.9888607813449256</v>
+        <v>2.128905370151751</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.592114576660931</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="N26">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O26">
-        <v>0.9680497855920076</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q26">
+        <v>2.813622959183559</v>
+      </c>
+      <c r="R26">
+        <v>2.136284881331725</v>
       </c>
       <c r="S26">
-        <v>1.004862998135761</v>
+        <v>2.06981620228242</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="X26">
+        <v>3.619098299622086</v>
+      </c>
+      <c r="Y26">
+        <v>1.743437304046637</v>
+      </c>
+      <c r="Z26">
+        <v>1.445855570981687</v>
+      </c>
+      <c r="AA26">
+        <v>0.9817040049248538</v>
+      </c>
+      <c r="AB26">
+        <v>0.6130950078220276</v>
+      </c>
+      <c r="AC26">
+        <v>0.4417471081881414</v>
+      </c>
+      <c r="AD26">
+        <v>0.06454983420833527</v>
+      </c>
+      <c r="AE26">
+        <v>1.590366638575586</v>
+      </c>
+      <c r="AH26">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI26">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ26">
+        <v>2.974484833227983</v>
+      </c>
+      <c r="AK26">
+        <v>2.689794577799234</v>
+      </c>
+      <c r="AL26">
+        <v>2.152693527870546</v>
+      </c>
+      <c r="AM26">
+        <v>2.001355536590554</v>
+      </c>
+      <c r="AN26">
+        <v>1.555746348114621</v>
+      </c>
+      <c r="AO26">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="D27">
-        <v>1.007547763174238</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3.556791489065525</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.965963121097199</v>
+      </c>
+      <c r="G27">
+        <v>2.847940162254289</v>
+      </c>
+      <c r="H27">
+        <v>2.186568569396004</v>
       </c>
       <c r="I27">
-        <v>0.9885020446512783</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.5927812253013</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="N27">
-        <v>1.025193550437113</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O27">
-        <v>0.9680497855920076</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q27">
+        <v>2.814231230149257</v>
+      </c>
+      <c r="R27">
+        <v>2.136383086377916</v>
       </c>
       <c r="S27">
-        <v>1.004630242898662</v>
+        <v>2.069659070088041</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="X27">
+        <v>4.318868293966383</v>
+      </c>
+      <c r="Y27">
+        <v>3.804364109615697</v>
+      </c>
+      <c r="Z27">
+        <v>3.524273179782191</v>
+      </c>
+      <c r="AA27">
+        <v>2.98441210870031</v>
+      </c>
+      <c r="AB27">
+        <v>2.46871131124893</v>
+      </c>
+      <c r="AC27">
+        <v>2.287659231725454</v>
+      </c>
+      <c r="AD27">
+        <v>1.82821879869648</v>
+      </c>
+      <c r="AE27">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AH27">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI27">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ27">
+        <v>2.964149743619427</v>
+      </c>
+      <c r="AK27">
+        <v>2.707731441171644</v>
+      </c>
+      <c r="AL27">
+        <v>2.16386511303675</v>
+      </c>
+      <c r="AM27">
+        <v>1.998256847321904</v>
+      </c>
+      <c r="AN27">
+        <v>1.55579022261641</v>
+      </c>
+      <c r="AO27">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="D28">
-        <v>1.007331297478956</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3.557041638444961</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2.963468835374473</v>
+      </c>
+      <c r="G28">
+        <v>2.847785927001569</v>
+      </c>
+      <c r="H28">
+        <v>2.186146012251091</v>
       </c>
       <c r="I28">
-        <v>0.9888607813449256</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.589532157596782</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="N28">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O28">
-        <v>0.9680497855920076</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q28">
+        <v>2.820692111513076</v>
+      </c>
+      <c r="R28">
+        <v>2.136333983960265</v>
       </c>
       <c r="S28">
-        <v>1.004862998135761</v>
+        <v>2.066882510670995</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="X28">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y28">
+        <v>3.803703947500946</v>
+      </c>
+      <c r="Z28">
+        <v>3.524028388403149</v>
+      </c>
+      <c r="AA28">
+        <v>2.98436201706678</v>
+      </c>
+      <c r="AB28">
+        <v>2.461559311565034</v>
+      </c>
+      <c r="AC28">
+        <v>2.287773288498288</v>
+      </c>
+      <c r="AD28">
+        <v>1.832718421036998</v>
+      </c>
+      <c r="AE28">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AH28">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI28">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ28">
+        <v>2.958858510512606</v>
+      </c>
+      <c r="AK28">
+        <v>2.707349046617181</v>
+      </c>
+      <c r="AL28">
+        <v>2.142972287298376</v>
+      </c>
+      <c r="AM28">
+        <v>1.998361795780763</v>
+      </c>
+      <c r="AN28">
+        <v>1.555707812285104</v>
+      </c>
+      <c r="AO28">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="D29">
-        <v>1.007331297478956</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3.556945627129161</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2.963401226229147</v>
+      </c>
+      <c r="G29">
+        <v>2.847785927001569</v>
+      </c>
+      <c r="H29">
+        <v>2.186375660822124</v>
       </c>
       <c r="I29">
-        <v>0.9885020446512783</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="N29">
-        <v>1.025193550437113</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O29">
-        <v>0.9680497855920076</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q29">
+        <v>2.813957217385008</v>
+      </c>
+      <c r="R29">
+        <v>2.136333983960265</v>
       </c>
       <c r="S29">
-        <v>1.004862998135761</v>
+        <v>2.072755892335727</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="X29">
+        <v>4.318812859991644</v>
+      </c>
+      <c r="Y29">
+        <v>3.804417638328852</v>
+      </c>
+      <c r="Z29">
+        <v>3.52400154571399</v>
+      </c>
+      <c r="AA29">
+        <v>2.98436201706678</v>
+      </c>
+      <c r="AB29">
+        <v>2.464990042030049</v>
+      </c>
+      <c r="AC29">
+        <v>2.287427104858816</v>
+      </c>
+      <c r="AD29">
+        <v>1.823728323776245</v>
+      </c>
+      <c r="AE29">
+        <v>1.600820063844728</v>
+      </c>
+      <c r="AH29">
+        <v>4.223266323365979</v>
+      </c>
+      <c r="AI29">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ29">
+        <v>2.964129471765439</v>
+      </c>
+      <c r="AK29">
+        <v>2.70789543671967</v>
+      </c>
+      <c r="AL29">
+        <v>2.161492474446491</v>
+      </c>
+      <c r="AM29">
+        <v>1.998483454197862</v>
+      </c>
+      <c r="AN29">
+        <v>1.555722277450783</v>
+      </c>
+      <c r="AO29">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="D30">
-        <v>1.007547763174238</v>
+        <v>4.234352527707969</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3.557106940667521</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2.963394308862783</v>
+      </c>
+      <c r="G30">
+        <v>2.847837339024479</v>
+      </c>
+      <c r="H30">
+        <v>2.185885586746267</v>
       </c>
       <c r="I30">
-        <v>0.9885020446512783</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.592709046047444</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="N30">
-        <v>1.025193550437113</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O30">
-        <v>0.9686543630543183</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q30">
+        <v>2.820077187373869</v>
+      </c>
+      <c r="R30">
+        <v>2.136333983960265</v>
       </c>
       <c r="S30">
-        <v>1.004630242898662</v>
+        <v>2.08173926003457</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="X30">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y30">
+        <v>3.803966946799166</v>
+      </c>
+      <c r="Z30">
+        <v>3.52410002165534</v>
+      </c>
+      <c r="AA30">
+        <v>2.98436201706678</v>
+      </c>
+      <c r="AB30">
+        <v>2.46499403899625</v>
+      </c>
+      <c r="AC30">
+        <v>2.287793963464002</v>
+      </c>
+      <c r="AD30">
+        <v>1.822674614681347</v>
+      </c>
+      <c r="AE30">
+        <v>1.600774995637184</v>
+      </c>
+      <c r="AH30">
+        <v>4.223209927792182</v>
+      </c>
+      <c r="AI30">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ30">
+        <v>2.963982068811509</v>
+      </c>
+      <c r="AK30">
+        <v>2.709705298081253</v>
+      </c>
+      <c r="AL30">
+        <v>2.142966706886371</v>
+      </c>
+      <c r="AM30">
+        <v>1.998575505013293</v>
+      </c>
+      <c r="AN30">
+        <v>1.555653033028511</v>
+      </c>
+      <c r="AO30">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="D31">
-        <v>1.007547763174238</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.60853087543843</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.963410917920463</v>
+      </c>
+      <c r="G31">
+        <v>2.847888750775379</v>
+      </c>
+      <c r="H31">
+        <v>2.2094083421525</v>
       </c>
       <c r="I31">
-        <v>0.9888607813449256</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.592929582985873</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="N31">
-        <v>1.025056581907364</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O31">
-        <v>0.9680497855920076</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q31">
+        <v>2.810817853354367</v>
+      </c>
+      <c r="R31">
+        <v>2.136284881331725</v>
       </c>
       <c r="S31">
-        <v>1.004862998135761</v>
+        <v>2.081551054851067</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="X31">
+        <v>4.318757425639461</v>
+      </c>
+      <c r="Y31">
+        <v>3.804303858467251</v>
+      </c>
+      <c r="Z31">
+        <v>3.523997539738047</v>
+      </c>
+      <c r="AA31">
+        <v>2.98441210870031</v>
+      </c>
+      <c r="AB31">
+        <v>2.461686168404984</v>
+      </c>
+      <c r="AC31">
+        <v>2.287582621214505</v>
+      </c>
+      <c r="AD31">
+        <v>1.832655754679416</v>
+      </c>
+      <c r="AE31">
+        <v>1.600551373956643</v>
+      </c>
+      <c r="AH31">
+        <v>4.223266323365979</v>
+      </c>
+      <c r="AI31">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ31">
+        <v>2.964092407284276</v>
+      </c>
+      <c r="AK31">
+        <v>2.707534672438034</v>
+      </c>
+      <c r="AL31">
+        <v>2.161647318795517</v>
+      </c>
+      <c r="AM31">
+        <v>1.998599660464941</v>
+      </c>
+      <c r="AN31">
+        <v>1.555712701623523</v>
+      </c>
+      <c r="AO31">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3.55670980631292</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2.960895646984667</v>
+      </c>
+      <c r="G32">
+        <v>2.847888750775379</v>
+      </c>
+      <c r="H32">
+        <v>2.18557726968297</v>
+      </c>
+      <c r="I32">
+        <v>2.132355986955667</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.594720548259487</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="O32">
-        <v>0.9680497855920076</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q32">
+        <v>2.814312270855169</v>
+      </c>
+      <c r="R32">
+        <v>2.136383086377916</v>
+      </c>
+      <c r="S32">
+        <v>2.072807678540566</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="Y32">
+        <v>3.803748238945683</v>
+      </c>
+      <c r="Z32">
+        <v>3.524033676312351</v>
+      </c>
+      <c r="AA32">
+        <v>2.984343072565252</v>
+      </c>
+      <c r="AB32">
+        <v>2.465173371595335</v>
+      </c>
+      <c r="AC32">
+        <v>2.287465787040775</v>
+      </c>
+      <c r="AD32">
+        <v>1.822733598056642</v>
+      </c>
+      <c r="AE32">
+        <v>1.600820063844728</v>
+      </c>
+      <c r="AI32">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ32">
+        <v>2.958633772626424</v>
+      </c>
+      <c r="AK32">
+        <v>2.708129885126803</v>
+      </c>
+      <c r="AL32">
+        <v>2.161248204148887</v>
+      </c>
+      <c r="AM32">
+        <v>1.998155085065215</v>
+      </c>
+      <c r="AN32">
+        <v>1.555630629608655</v>
+      </c>
+      <c r="AO32">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3.556853282926712</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2.972895563413726</v>
+      </c>
+      <c r="G33">
+        <v>2.847940162254289</v>
+      </c>
+      <c r="H33">
+        <v>2.209058509681942</v>
+      </c>
+      <c r="I33">
+        <v>2.132454225802858</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="O33">
-        <v>0.9680497855920076</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q33">
+        <v>2.814130831550406</v>
+      </c>
+      <c r="R33">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S33">
+        <v>2.072628201212487</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="Y33">
+        <v>3.803180625420945</v>
+      </c>
+      <c r="Z33">
+        <v>3.524024532411622</v>
+      </c>
+      <c r="AA33">
+        <v>2.98441210870031</v>
+      </c>
+      <c r="AB33">
+        <v>2.465098293476748</v>
+      </c>
+      <c r="AC33">
+        <v>2.287380698680906</v>
+      </c>
+      <c r="AD33">
+        <v>1.832340707260182</v>
+      </c>
+      <c r="AE33">
+        <v>1.600594721772856</v>
+      </c>
+      <c r="AI33">
+        <v>3.544258536563716</v>
+      </c>
+      <c r="AJ33">
+        <v>2.964061668919817</v>
+      </c>
+      <c r="AK33">
+        <v>2.70757764707609</v>
+      </c>
+      <c r="AL33">
+        <v>2.161684286104701</v>
+      </c>
+      <c r="AM33">
+        <v>1.998548946404116</v>
+      </c>
+      <c r="AN33">
+        <v>1.55567971664046</v>
+      </c>
+      <c r="AO33">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.556741538982136</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2.966302199002458</v>
+      </c>
+      <c r="G34">
+        <v>2.847785927001569</v>
+      </c>
+      <c r="H34">
+        <v>2.186327623273046</v>
+      </c>
+      <c r="I34">
+        <v>2.132405106485074</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.592722358523228</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="O34">
-        <v>0.9674360913562696</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q34">
+        <v>2.813777422991023</v>
+      </c>
+      <c r="R34">
+        <v>2.136284881331725</v>
+      </c>
+      <c r="S34">
+        <v>2.06707847988391</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="Y34">
+        <v>3.803821894189321</v>
+      </c>
+      <c r="Z34">
+        <v>3.524275860156101</v>
+      </c>
+      <c r="AA34">
+        <v>2.98441210870031</v>
+      </c>
+      <c r="AB34">
+        <v>2.459972226897088</v>
+      </c>
+      <c r="AC34">
+        <v>2.287342054897973</v>
+      </c>
+      <c r="AD34">
+        <v>1.827935271043385</v>
+      </c>
+      <c r="AE34">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AI34">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ34">
+        <v>2.964027457617212</v>
+      </c>
+      <c r="AK34">
+        <v>2.707424281873665</v>
+      </c>
+      <c r="AL34">
+        <v>2.161609480526284</v>
+      </c>
+      <c r="AM34">
+        <v>1.998317229760824</v>
+      </c>
+      <c r="AN34">
+        <v>1.555744739782899</v>
+      </c>
+      <c r="AO34">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3.5569296185677</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2.962739351384096</v>
+      </c>
+      <c r="G35">
+        <v>2.621869437624929</v>
+      </c>
+      <c r="H35">
+        <v>2.186180789691016</v>
+      </c>
+      <c r="I35">
+        <v>1.862151219088783</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.591941477621537</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.527713406681892</v>
       </c>
       <c r="O35">
-        <v>0.9674360913562696</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q35">
+        <v>2.814247494431861</v>
+      </c>
+      <c r="R35">
+        <v>2.13623577849229</v>
+      </c>
+      <c r="S35">
+        <v>2.075368888844185</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0.2546866804202939</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3.582965588806866</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1.002114013678191</v>
+      </c>
+      <c r="G36">
+        <v>0.7570306362637187</v>
+      </c>
+      <c r="H36">
+        <v>0.3117557583404644</v>
+      </c>
+      <c r="I36">
+        <v>0.1702638193570629</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2310,143 +4569,443 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q36">
+        <v>2.807694784256819</v>
+      </c>
+      <c r="R36">
+        <v>2.136432188584686</v>
+      </c>
+      <c r="S36">
+        <v>2.084505132063416</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3.556786211209883</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2.960937700522308</v>
+      </c>
+      <c r="G37">
+        <v>2.847888750775379</v>
+      </c>
+      <c r="H37">
+        <v>2.186002141870456</v>
+      </c>
+      <c r="I37">
+        <v>2.132355986955667</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.592785005848145</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="O37">
-        <v>0.9680497855920076</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q37">
+        <v>2.81416897164861</v>
+      </c>
+      <c r="R37">
+        <v>2.136284881331725</v>
+      </c>
+      <c r="S37">
+        <v>2.075657408187825</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="Y37">
+        <v>3.803016196309801</v>
+      </c>
+      <c r="Z37">
+        <v>3.524127332078389</v>
+      </c>
+      <c r="AA37">
+        <v>2.984462200096948</v>
+      </c>
+      <c r="AB37">
+        <v>2.464831236496475</v>
+      </c>
+      <c r="AC37">
+        <v>2.287460175516119</v>
+      </c>
+      <c r="AD37">
+        <v>1.832703520057678</v>
+      </c>
+      <c r="AE37">
+        <v>1.600995912677574</v>
+      </c>
+      <c r="AI37">
+        <v>3.54431238546413</v>
+      </c>
+      <c r="AJ37">
+        <v>2.956919750902069</v>
+      </c>
+      <c r="AK37">
+        <v>2.707745137517926</v>
+      </c>
+      <c r="AL37">
+        <v>2.161762050631573</v>
+      </c>
+      <c r="AM37">
+        <v>1.992500001459574</v>
+      </c>
+      <c r="AN37">
+        <v>1.555722338808131</v>
+      </c>
+      <c r="AO37">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3.557118214016551</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2.9634118275033</v>
+      </c>
+      <c r="G38">
+        <v>2.808209039181112</v>
+      </c>
+      <c r="H38">
+        <v>2.186128392206982</v>
+      </c>
+      <c r="I38">
+        <v>2.067796931182981</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.592751528265083</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="O38">
-        <v>0.9680497855920076</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q38">
+        <v>2.814348458435142</v>
+      </c>
+      <c r="R38">
+        <v>2.136284881331725</v>
+      </c>
+      <c r="S38">
+        <v>2.072587891672405</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="Y38">
+        <v>1.668319906148826</v>
+      </c>
+      <c r="Z38">
+        <v>1.353964664930526</v>
+      </c>
+      <c r="AA38">
+        <v>0.9121302259129185</v>
+      </c>
+      <c r="AB38">
+        <v>0.572886163805165</v>
+      </c>
+      <c r="AC38">
+        <v>0.328385145087845</v>
+      </c>
+      <c r="AD38">
+        <v>0.03921019513037827</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0.2096717683493221</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3.556985278577234</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2.9633239365525</v>
+      </c>
+      <c r="G39">
+        <v>2.809440016320584</v>
+      </c>
+      <c r="H39">
+        <v>2.186293265016511</v>
+      </c>
+      <c r="I39">
+        <v>2.092049599687448</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.592888998508079</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1.543578568635242</v>
       </c>
       <c r="O39">
-        <v>0.9686543630543183</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q39">
+        <v>2.810977757373818</v>
+      </c>
+      <c r="R39">
+        <v>2.136284881331725</v>
+      </c>
+      <c r="S39">
+        <v>2.075706839150464</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="Y39">
+        <v>2.191209664513419</v>
+      </c>
+      <c r="Z39">
+        <v>1.930180068452523</v>
+      </c>
+      <c r="AA39">
+        <v>1.408535713026757</v>
+      </c>
+      <c r="AB39">
+        <v>0.8839281176803453</v>
+      </c>
+      <c r="AC39">
+        <v>0.7192998409810964</v>
+      </c>
+      <c r="AD39">
+        <v>0.2481946947160731</v>
+      </c>
+      <c r="AE39">
+        <v>0.04657239683899284</v>
+      </c>
+      <c r="AI39">
+        <v>1.961587862154105</v>
+      </c>
+      <c r="AJ39">
+        <v>1.384980756796919</v>
+      </c>
+      <c r="AK39">
+        <v>1.12357409124432</v>
+      </c>
+      <c r="AL39">
+        <v>0.5794366423160651</v>
+      </c>
+      <c r="AM39">
+        <v>0.4335132460990403</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3.556959168926173</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2.958752692048337</v>
+      </c>
+      <c r="G40">
+        <v>2.634769467250603</v>
+      </c>
+      <c r="H40">
+        <v>2.18613242070339</v>
+      </c>
+      <c r="I40">
+        <v>1.891231578297756</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.591997130918771</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.524207928241799</v>
       </c>
       <c r="O40">
-        <v>0.9674360913562696</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q40">
+        <v>2.814006890159738</v>
+      </c>
+      <c r="R40">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S40">
+        <v>2.064449407174147</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1.454542946945674</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.9809096189215878</v>
+      </c>
+      <c r="G41">
+        <v>0.783901979462913</v>
+      </c>
+      <c r="H41">
+        <v>0.2968579003607832</v>
+      </c>
+      <c r="I41">
+        <v>0.2474047994642437</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2455,445 +5014,3386 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>3.541781123960568</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q41">
+        <v>2.814144196335638</v>
+      </c>
+      <c r="R41">
+        <v>2.13623577849229</v>
+      </c>
+      <c r="S41">
+        <v>2.084606023658635</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="Y41">
+        <v>1.536821066630141</v>
+      </c>
+      <c r="Z41">
+        <v>0.3398547569583419</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2.921816307969009</v>
+      </c>
+      <c r="G42">
+        <v>2.770308769880106</v>
+      </c>
+      <c r="H42">
+        <v>2.219577914050146</v>
+      </c>
+      <c r="I42">
+        <v>2.058134475064853</v>
+      </c>
+      <c r="J42">
+        <v>1.558821999864589</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1.545764516224579</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q42">
+        <v>2.813993976362279</v>
+      </c>
+      <c r="R42">
+        <v>2.136432188584686</v>
+      </c>
+      <c r="S42">
+        <v>2.084728539326199</v>
+      </c>
+      <c r="T42">
+        <v>1.552454340884998</v>
       </c>
       <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="Z42">
+        <v>0.35783523482614</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2.963974688671104</v>
+      </c>
+      <c r="G43">
+        <v>2.79735047373093</v>
+      </c>
+      <c r="H43">
+        <v>2.186274745159217</v>
+      </c>
+      <c r="I43">
+        <v>2.062495236653886</v>
+      </c>
+      <c r="J43">
+        <v>1.592733634736766</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q43">
+        <v>2.814176286598598</v>
+      </c>
+      <c r="R43">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S43">
+        <v>2.066949426174882</v>
+      </c>
+      <c r="T43">
+        <v>1.552363339533482</v>
       </c>
       <c r="U43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="Z43">
+        <v>0.2970549855588644</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="F44">
+        <v>0.8733022137581365</v>
+      </c>
+      <c r="G44">
+        <v>0.5701797172626162</v>
+      </c>
+      <c r="H44">
+        <v>0.1229576652284503</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q44">
+        <v>2.813849038228807</v>
+      </c>
+      <c r="R44">
+        <v>2.13623577849229</v>
+      </c>
+      <c r="S44">
+        <v>2.078201872783767</v>
+      </c>
+      <c r="T44">
+        <v>1.552272337723035</v>
       </c>
       <c r="U44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.965952431932092</v>
+      </c>
+      <c r="G45">
+        <v>2.847888750775379</v>
+      </c>
+      <c r="H45">
+        <v>2.186538997113519</v>
+      </c>
+      <c r="I45">
+        <v>2.132405106485074</v>
+      </c>
+      <c r="J45">
+        <v>1.592835933886341</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q45">
+        <v>2.81405255700928</v>
+      </c>
+      <c r="R45">
+        <v>2.136383086377916</v>
+      </c>
+      <c r="S45">
+        <v>2.072448557320032</v>
+      </c>
+      <c r="T45">
+        <v>1.552408840266605</v>
       </c>
       <c r="U45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="Z45">
+        <v>3.52393980294177</v>
+      </c>
+      <c r="AA45">
+        <v>2.984471027670278</v>
+      </c>
+      <c r="AB45">
+        <v>2.464992745144729</v>
+      </c>
+      <c r="AC45">
+        <v>2.287367615039752</v>
+      </c>
+      <c r="AD45">
+        <v>1.827771590767341</v>
+      </c>
+      <c r="AE45">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AJ45">
+        <v>2.964178812312146</v>
+      </c>
+      <c r="AK45">
+        <v>2.707596998052411</v>
+      </c>
+      <c r="AL45">
+        <v>2.163400210940789</v>
+      </c>
+      <c r="AM45">
+        <v>1.998491162651753</v>
+      </c>
+      <c r="AN45">
+        <v>1.553088282402644</v>
+      </c>
+      <c r="AO45">
+        <v>1.547676148595179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2.925829131000857</v>
+      </c>
+      <c r="G46">
+        <v>2.667102644339868</v>
+      </c>
+      <c r="H46">
+        <v>2.213947279287389</v>
+      </c>
+      <c r="I46">
+        <v>1.911140951037923</v>
+      </c>
+      <c r="J46">
+        <v>1.556466407361183</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1.52912793760166</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q46">
+        <v>2.817494058300968</v>
+      </c>
+      <c r="R46">
+        <v>2.13623577849229</v>
+      </c>
+      <c r="S46">
+        <v>2.06198539623797</v>
+      </c>
+      <c r="T46">
+        <v>1.552272337723035</v>
       </c>
       <c r="U46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>1.544125812096084</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2.963391480217518</v>
+      </c>
+      <c r="G47">
+        <v>2.779585320641532</v>
+      </c>
+      <c r="H47">
+        <v>2.186214309935911</v>
+      </c>
+      <c r="I47">
+        <v>2.063710877640654</v>
+      </c>
+      <c r="J47">
+        <v>1.592744680242175</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q47">
+        <v>2.814294510997563</v>
+      </c>
+      <c r="R47">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S47">
+        <v>2.072457430877827</v>
+      </c>
+      <c r="T47">
+        <v>1.552272337723035</v>
       </c>
       <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="Z47">
+        <v>1.600904979577798</v>
+      </c>
+      <c r="AA47">
+        <v>1.198567708956185</v>
+      </c>
+      <c r="AB47">
+        <v>0.7447635074942391</v>
+      </c>
+      <c r="AC47">
+        <v>0.5334957993668272</v>
+      </c>
+      <c r="AD47">
+        <v>0.1423505480620808</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>1.09141084783948</v>
+      </c>
+      <c r="AK47">
+        <v>0.893826399524259</v>
+      </c>
+      <c r="AL47">
+        <v>0.4017636712634096</v>
+      </c>
+      <c r="AM47">
+        <v>0.2783050540017067</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="F48">
+        <v>0.8585110906008699</v>
+      </c>
+      <c r="G48">
+        <v>0.7725114411503393</v>
+      </c>
+      <c r="H48">
+        <v>0.2650114412370059</v>
+      </c>
+      <c r="I48">
+        <v>0.1469828626815786</v>
+      </c>
+      <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>2.851898030265164</v>
+      </c>
+      <c r="Q48">
+        <v>2.814018483559738</v>
+      </c>
+      <c r="R48">
+        <v>2.136432188584686</v>
+      </c>
+      <c r="S48">
+        <v>2.084457826232186</v>
+      </c>
+      <c r="T48">
+        <v>1.552499841388667</v>
       </c>
       <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>1.544398939852563</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.926120044989667</v>
+      </c>
+      <c r="G49">
+        <v>2.665415761000179</v>
+      </c>
+      <c r="H49">
+        <v>2.214333180598451</v>
+      </c>
+      <c r="I49">
+        <v>1.901989112778802</v>
+      </c>
+      <c r="J49">
+        <v>1.557098591257255</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1.564286902268512</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>2.851795248852528</v>
+      </c>
+      <c r="Q49">
+        <v>2.817415490451852</v>
+      </c>
+      <c r="R49">
+        <v>2.13623577849229</v>
+      </c>
+      <c r="S49">
+        <v>2.064241008067273</v>
+      </c>
+      <c r="T49">
+        <v>1.552272337723035</v>
       </c>
       <c r="U49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>1.544125812096084</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.96582541364478</v>
+      </c>
+      <c r="G50">
+        <v>2.799091998881201</v>
+      </c>
+      <c r="H50">
+        <v>2.186503052421377</v>
+      </c>
+      <c r="I50">
+        <v>2.093930697420751</v>
+      </c>
+      <c r="J50">
+        <v>1.59470250574004</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q50">
+        <v>2.820261021506019</v>
+      </c>
+      <c r="R50">
+        <v>2.136383086377916</v>
+      </c>
+      <c r="S50">
+        <v>2.081325243403734</v>
+      </c>
+      <c r="T50">
+        <v>1.552317838685629</v>
       </c>
       <c r="U50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="Z50">
+        <v>0.3914183551979262</v>
+      </c>
+      <c r="AA50">
+        <v>0.09410260101358547</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2.963472357963641</v>
+      </c>
+      <c r="G51">
+        <v>2.847888750775379</v>
+      </c>
+      <c r="H51">
+        <v>2.216452589774895</v>
+      </c>
+      <c r="I51">
+        <v>2.132306867214623</v>
+      </c>
+      <c r="J51">
+        <v>1.59270961382953</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>2.851846639694392</v>
+      </c>
+      <c r="Q51">
+        <v>2.813726342535445</v>
+      </c>
+      <c r="R51">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S51">
+        <v>2.072877989663821</v>
+      </c>
+      <c r="T51">
+        <v>1.552454340884998</v>
       </c>
       <c r="U51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="Z51">
+        <v>3.524181098538229</v>
+      </c>
+      <c r="AA51">
+        <v>2.98436201706678</v>
+      </c>
+      <c r="AB51">
+        <v>2.465009417040902</v>
+      </c>
+      <c r="AC51">
+        <v>2.283794388336037</v>
+      </c>
+      <c r="AD51">
+        <v>0.1264182661581665</v>
+      </c>
+      <c r="AE51">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AJ51">
+        <v>2.963982999390936</v>
+      </c>
+      <c r="AK51">
+        <v>2.711684826494502</v>
+      </c>
+      <c r="AL51">
+        <v>2.163017490813806</v>
+      </c>
+      <c r="AM51">
+        <v>1.99880828084123</v>
+      </c>
+      <c r="AN51">
+        <v>1.555607576236413</v>
+      </c>
+      <c r="AO51">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>30</v>
-      </c>
-      <c r="E52">
-        <v>40</v>
-      </c>
-      <c r="F52">
-        <v>50</v>
-      </c>
       <c r="G52">
-        <v>10</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H52">
-        <v>20</v>
+        <v>2.186043819750708</v>
       </c>
       <c r="I52">
-        <v>30</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J52">
-        <v>40</v>
+        <v>1.59278864871763</v>
       </c>
       <c r="K52">
-        <v>50</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
-      <c r="M52">
-        <v>20</v>
-      </c>
-      <c r="N52">
-        <v>30</v>
-      </c>
-      <c r="O52">
-        <v>40</v>
-      </c>
-      <c r="P52">
-        <v>50</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>2.813917650516393</v>
       </c>
       <c r="R52">
-        <v>20</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S52">
-        <v>30</v>
+        <v>2.072844102802898</v>
       </c>
       <c r="T52">
-        <v>40</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="AA52">
+        <v>2.984250917031768</v>
+      </c>
+      <c r="AB52">
+        <v>2.465209174764575</v>
+      </c>
+      <c r="AC52">
+        <v>2.287508819435324</v>
+      </c>
+      <c r="AD52">
+        <v>1.823152639474382</v>
+      </c>
+      <c r="AE52">
+        <v>1.60072992732623</v>
+      </c>
+      <c r="AK52">
+        <v>2.707884205045604</v>
+      </c>
+      <c r="AL52">
+        <v>2.161242742042513</v>
+      </c>
+      <c r="AM52">
+        <v>2.000761663919047</v>
+      </c>
+      <c r="AN52">
+        <v>1.555722433199525</v>
+      </c>
+      <c r="AO52">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="G53">
-        <v>0</v>
+        <v>2.825520956525422</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2.18605012225798</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2.098253453842983</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.592734053354053</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>2.817094507462558</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>2.067008282651718</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="AA53">
+        <v>0.9458256328847137</v>
+      </c>
+      <c r="AB53">
+        <v>0.6004058115617956</v>
+      </c>
+      <c r="AC53">
+        <v>0.3670918581047622</v>
+      </c>
+      <c r="AD53">
+        <v>0.08012705706600975</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
-        <v>0</v>
+        <v>2.823844788525509</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2.186111162100257</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2.087281386665451</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.592884630995881</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.817417940076391</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>2.069819799643639</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AA54">
+        <v>0.9918364625375977</v>
+      </c>
+      <c r="AB54">
+        <v>0.6148022974306024</v>
+      </c>
+      <c r="AC54">
+        <v>0.3731904520767071</v>
+      </c>
+      <c r="AD54">
+        <v>0.07064694367015756</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="G55">
+        <v>2.816523234695915</v>
+      </c>
+      <c r="H55">
+        <v>2.215635508400782</v>
+      </c>
+      <c r="I55">
+        <v>2.082344911082321</v>
+      </c>
+      <c r="J55">
+        <v>1.553026713695597</v>
+      </c>
+      <c r="K55">
+        <v>1.545081741036747</v>
+      </c>
+      <c r="Q55">
+        <v>2.820458094823748</v>
+      </c>
+      <c r="R55">
+        <v>2.136383086377916</v>
+      </c>
+      <c r="S55">
+        <v>2.08467145425717</v>
+      </c>
+      <c r="T55">
+        <v>1.552499841388667</v>
+      </c>
+      <c r="U55">
+        <v>1.544398939852563</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <v>2.800227831811426</v>
+      </c>
+      <c r="H56">
+        <v>2.186166179218299</v>
+      </c>
+      <c r="I56">
+        <v>2.068113996301157</v>
+      </c>
+      <c r="J56">
+        <v>1.592972949773688</v>
+      </c>
+      <c r="K56">
+        <v>1.548904947738966</v>
+      </c>
+      <c r="Q56">
+        <v>2.820043984712966</v>
+      </c>
+      <c r="R56">
+        <v>2.136284881331725</v>
+      </c>
+      <c r="S56">
+        <v>2.084602590521772</v>
+      </c>
+      <c r="T56">
+        <v>1.552317838685629</v>
+      </c>
+      <c r="U56">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="AA56">
+        <v>0.9222791821201972</v>
+      </c>
+      <c r="AB56">
+        <v>0.5541954071110082</v>
+      </c>
+      <c r="AC56">
+        <v>0.3176935298777857</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <v>2.847837339024479</v>
+      </c>
+      <c r="H57">
+        <v>2.186147036790929</v>
+      </c>
+      <c r="I57">
+        <v>2.132355986955667</v>
+      </c>
+      <c r="J57">
+        <v>1.592670262638338</v>
+      </c>
+      <c r="K57">
+        <v>1.549132493923784</v>
+      </c>
+      <c r="Q57">
+        <v>2.820237864032466</v>
+      </c>
+      <c r="R57">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S57">
+        <v>2.069866844914345</v>
+      </c>
+      <c r="T57">
+        <v>1.552408840266605</v>
+      </c>
+      <c r="U57">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="AA57">
+        <v>2.98436201706678</v>
+      </c>
+      <c r="AB57">
+        <v>2.465187153096622</v>
+      </c>
+      <c r="AC57">
+        <v>2.288178403161527</v>
+      </c>
+      <c r="AD57">
+        <v>1.820702737004906</v>
+      </c>
+      <c r="AE57">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AK57">
+        <v>2.707827309400323</v>
+      </c>
+      <c r="AL57">
+        <v>2.161358648467178</v>
+      </c>
+      <c r="AM57">
+        <v>2.001112743149113</v>
+      </c>
+      <c r="AN57">
+        <v>1.553095378002448</v>
+      </c>
+      <c r="AO57">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>2.846346279877899</v>
+      </c>
+      <c r="H58">
+        <v>2.220532522537937</v>
+      </c>
+      <c r="I58">
+        <v>2.128720553872986</v>
+      </c>
+      <c r="J58">
+        <v>1.560211864329081</v>
+      </c>
+      <c r="K58">
+        <v>1.545491409267916</v>
+      </c>
+      <c r="Q58">
+        <v>2.814043191592602</v>
+      </c>
+      <c r="R58">
+        <v>2.136432188584686</v>
+      </c>
+      <c r="S58">
+        <v>2.072848318973722</v>
+      </c>
+      <c r="T58">
+        <v>1.552272337723035</v>
+      </c>
+      <c r="U58">
+        <v>1.544398939852563</v>
+      </c>
+      <c r="AA58">
+        <v>0.8804969960063032</v>
+      </c>
+      <c r="AB58">
+        <v>0.4287999259292004</v>
+      </c>
+      <c r="AC58">
+        <v>0.121689140285961</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>2.690634129842297</v>
+      </c>
+      <c r="AL58">
+        <v>2.211028575906206</v>
+      </c>
+      <c r="AM58">
+        <v>2.002514381783795</v>
+      </c>
+      <c r="AN58">
+        <v>1.555796806386582</v>
+      </c>
+      <c r="AO58">
+        <v>1.547630635902873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59">
+        <v>2.847837339024479</v>
+      </c>
+      <c r="H59">
+        <v>2.186231800711568</v>
+      </c>
+      <c r="I59">
+        <v>2.132306867214623</v>
+      </c>
+      <c r="J59">
+        <v>1.592749109796331</v>
+      </c>
+      <c r="K59">
+        <v>1.549041475795162</v>
+      </c>
+      <c r="Q59">
+        <v>2.814056385012282</v>
+      </c>
+      <c r="R59">
+        <v>2.136284881331725</v>
+      </c>
+      <c r="S59">
+        <v>2.072549206337484</v>
+      </c>
+      <c r="T59">
+        <v>1.552408840266605</v>
+      </c>
+      <c r="U59">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="AA59">
+        <v>2.984338667961882</v>
+      </c>
+      <c r="AB59">
+        <v>2.461805611555744</v>
+      </c>
+      <c r="AC59">
+        <v>2.287467796213083</v>
+      </c>
+      <c r="AD59">
+        <v>1.832310240058427</v>
+      </c>
+      <c r="AE59">
+        <v>1.600602120715411</v>
+      </c>
+      <c r="AK59">
+        <v>2.707982644967639</v>
+      </c>
+      <c r="AL59">
+        <v>2.161794555530398</v>
+      </c>
+      <c r="AM59">
+        <v>1.998247859985851</v>
+      </c>
+      <c r="AN59">
+        <v>1.555697539111249</v>
+      </c>
+      <c r="AO59">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60">
+        <v>2.847888750775379</v>
+      </c>
+      <c r="H60">
+        <v>2.209329646707345</v>
+      </c>
+      <c r="I60">
+        <v>2.132257747261938</v>
+      </c>
+      <c r="J60">
+        <v>1.592727269907032</v>
+      </c>
+      <c r="K60">
+        <v>1.548904947738966</v>
+      </c>
+      <c r="Q60">
+        <v>2.813853306623503</v>
+      </c>
+      <c r="R60">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S60">
+        <v>2.07575495830064</v>
+      </c>
+      <c r="T60">
+        <v>1.552408840266605</v>
+      </c>
+      <c r="U60">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="AA60">
+        <v>2.984462200096948</v>
+      </c>
+      <c r="AB60">
+        <v>2.464591620245788</v>
+      </c>
+      <c r="AC60">
+        <v>2.284272372225955</v>
+      </c>
+      <c r="AD60">
+        <v>1.822640222143929</v>
+      </c>
+      <c r="AE60">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AK60">
+        <v>2.707580088921957</v>
+      </c>
+      <c r="AL60">
+        <v>2.14298475171321</v>
+      </c>
+      <c r="AM60">
+        <v>1.99844017335156</v>
+      </c>
+      <c r="AN60">
+        <v>1.555697694220586</v>
+      </c>
+      <c r="AO60">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61">
+        <v>2.828327959234925</v>
+      </c>
+      <c r="H61">
+        <v>2.186078560080686</v>
+      </c>
+      <c r="I61">
+        <v>2.107513284555344</v>
+      </c>
+      <c r="J61">
+        <v>1.592792653352201</v>
+      </c>
+      <c r="K61">
+        <v>1.549086984917021</v>
+      </c>
+      <c r="Q61">
+        <v>2.811210956902164</v>
+      </c>
+      <c r="R61">
+        <v>2.136432188584686</v>
+      </c>
+      <c r="S61">
+        <v>2.087779582655771</v>
+      </c>
+      <c r="T61">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U61">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AA61">
+        <v>0.9471736548286367</v>
+      </c>
+      <c r="AB61">
+        <v>0.5767556718263214</v>
+      </c>
+      <c r="AC61">
+        <v>0.365471975123759</v>
+      </c>
+      <c r="AD61">
+        <v>0.05461568088174507</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>1.97323456423462</v>
+      </c>
+      <c r="AN61">
+        <v>1.511386745959962</v>
+      </c>
+      <c r="AO61">
+        <v>1.547676148595179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62">
+        <v>2.186341072592227</v>
+      </c>
+      <c r="I62">
+        <v>1.964490387017716</v>
+      </c>
+      <c r="J62">
+        <v>1.592062539486502</v>
+      </c>
+      <c r="K62">
+        <v>1.544754041069211</v>
+      </c>
+      <c r="R62">
+        <v>2.136383086377916</v>
+      </c>
+      <c r="S62">
+        <v>2.072872497618429</v>
+      </c>
+      <c r="T62">
+        <v>1.552272337723035</v>
+      </c>
+      <c r="U62">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>2.186054907416633</v>
+      </c>
+      <c r="I63">
+        <v>2.087552573002045</v>
+      </c>
+      <c r="J63">
+        <v>1.594565494031626</v>
+      </c>
+      <c r="K63">
+        <v>1.549086984917021</v>
+      </c>
+      <c r="R63">
+        <v>2.136383086377916</v>
+      </c>
+      <c r="S63">
+        <v>2.08158768545507</v>
+      </c>
+      <c r="T63">
+        <v>1.552363339533482</v>
+      </c>
+      <c r="U63">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="AB63">
+        <v>0.6014826900252119</v>
+      </c>
+      <c r="AC63">
+        <v>0.3556985325069268</v>
+      </c>
+      <c r="AD63">
+        <v>0.06973594642844461</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64">
+        <v>2.208974422748596</v>
+      </c>
+      <c r="I64">
+        <v>2.132454225802858</v>
+      </c>
+      <c r="J64">
+        <v>1.592690318366759</v>
+      </c>
+      <c r="K64">
+        <v>1.549086984917021</v>
+      </c>
+      <c r="R64">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S64">
+        <v>2.078948454324261</v>
+      </c>
+      <c r="T64">
+        <v>1.552317838685629</v>
+      </c>
+      <c r="U64">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AB64">
+        <v>2.465165528580698</v>
+      </c>
+      <c r="AC64">
+        <v>2.289047956706704</v>
+      </c>
+      <c r="AD64">
+        <v>1.827434734770279</v>
+      </c>
+      <c r="AE64">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AL64">
+        <v>2.161715697463085</v>
+      </c>
+      <c r="AM64">
+        <v>1.998775262253453</v>
+      </c>
+      <c r="AN64">
+        <v>1.555611737273428</v>
+      </c>
+      <c r="AO64">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65">
+        <v>2.186731836692812</v>
+      </c>
+      <c r="I65">
+        <v>2.1091480610688</v>
+      </c>
+      <c r="J65">
+        <v>1.595630586901833</v>
+      </c>
+      <c r="K65">
+        <v>1.549086984917021</v>
+      </c>
+      <c r="R65">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S65">
+        <v>2.081417307054402</v>
+      </c>
+      <c r="T65">
+        <v>1.552363339533482</v>
+      </c>
+      <c r="U65">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="AB65">
+        <v>0.5693238658572781</v>
+      </c>
+      <c r="AC65">
+        <v>0.3768664921870497</v>
+      </c>
+      <c r="AD65">
+        <v>0.01922971034489884</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>2.142783834418285</v>
+      </c>
+      <c r="AM65">
+        <v>2.004456421770615</v>
+      </c>
+      <c r="AN65">
+        <v>1.510543291913018</v>
+      </c>
+      <c r="AO65">
+        <v>1.529333696302019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66">
+        <v>2.185408429567377</v>
+      </c>
+      <c r="I66">
+        <v>2.132355986955667</v>
+      </c>
+      <c r="J66">
+        <v>1.592834392769593</v>
+      </c>
+      <c r="K66">
+        <v>1.548995966558204</v>
+      </c>
+      <c r="R66">
+        <v>2.136383086377916</v>
+      </c>
+      <c r="S66">
+        <v>2.073108231567286</v>
+      </c>
+      <c r="T66">
+        <v>1.552317838685629</v>
+      </c>
+      <c r="U66">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AB66">
+        <v>2.465279041514038</v>
+      </c>
+      <c r="AC66">
+        <v>2.287625579751994</v>
+      </c>
+      <c r="AD66">
+        <v>1.823226364260602</v>
+      </c>
+      <c r="AE66">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AL66">
+        <v>2.161811675208619</v>
+      </c>
+      <c r="AM66">
+        <v>1.998668723903642</v>
+      </c>
+      <c r="AN66">
+        <v>1.555584237866986</v>
+      </c>
+      <c r="AO66">
+        <v>1.547676148595179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67">
+        <v>2.216724355633049</v>
+      </c>
+      <c r="I67">
+        <v>2.132454225802858</v>
+      </c>
+      <c r="J67">
+        <v>1.592817801941307</v>
+      </c>
+      <c r="K67">
+        <v>1.549041475795162</v>
+      </c>
+      <c r="R67">
+        <v>2.136383086377916</v>
+      </c>
+      <c r="S67">
+        <v>2.072582966103696</v>
+      </c>
+      <c r="T67">
+        <v>1.552408840266605</v>
+      </c>
+      <c r="U67">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="AB67">
+        <v>2.465159063052463</v>
+      </c>
+      <c r="AC67">
+        <v>2.289474938404383</v>
+      </c>
+      <c r="AD67">
+        <v>1.834800189533171</v>
+      </c>
+      <c r="AE67">
+        <v>1.600774995637184</v>
+      </c>
+      <c r="AL67">
+        <v>2.161638795037499</v>
+      </c>
+      <c r="AM67">
+        <v>2.00077768983852</v>
+      </c>
+      <c r="AN67">
+        <v>1.555776350190314</v>
+      </c>
+      <c r="AO67">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68">
+        <v>2.194283514013359</v>
+      </c>
+      <c r="I68">
+        <v>2.132454225802858</v>
+      </c>
+      <c r="J68">
+        <v>1.59259375280507</v>
+      </c>
+      <c r="K68">
+        <v>1.549132493923784</v>
+      </c>
+      <c r="R68">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S68">
+        <v>2.067143357323082</v>
+      </c>
+      <c r="T68">
+        <v>1.552408840266605</v>
+      </c>
+      <c r="U68">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AB68">
+        <v>2.464955663130448</v>
+      </c>
+      <c r="AC68">
+        <v>2.287753397456917</v>
+      </c>
+      <c r="AD68">
+        <v>1.822887632362332</v>
+      </c>
+      <c r="AE68">
+        <v>1.600774995637184</v>
+      </c>
+      <c r="AL68">
+        <v>2.16125262152175</v>
+      </c>
+      <c r="AM68">
+        <v>2.00045613792803</v>
+      </c>
+      <c r="AN68">
+        <v>1.555627175329827</v>
+      </c>
+      <c r="AO68">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69">
+        <v>2.15941561786408</v>
+      </c>
+      <c r="I69">
+        <v>1.946784262926171</v>
+      </c>
+      <c r="J69">
+        <v>1.592499600781818</v>
+      </c>
+      <c r="K69">
+        <v>1.539532609924474</v>
+      </c>
+      <c r="R69">
+        <v>2.136333983960265</v>
+      </c>
+      <c r="S69">
+        <v>2.084576862044313</v>
+      </c>
+      <c r="T69">
+        <v>1.552499841388667</v>
+      </c>
+      <c r="U69">
+        <v>1.544398939852563</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70">
+        <v>2.209223702490058</v>
+      </c>
+      <c r="I70">
+        <v>2.132405106485074</v>
+      </c>
+      <c r="J70">
+        <v>1.592760113121617</v>
+      </c>
+      <c r="K70">
+        <v>1.549041475795162</v>
+      </c>
+      <c r="R70">
+        <v>2.13623577849229</v>
+      </c>
+      <c r="S70">
+        <v>2.072638431158278</v>
+      </c>
+      <c r="T70">
+        <v>1.552363339533482</v>
+      </c>
+      <c r="U70">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AB70">
+        <v>2.464884631076856</v>
+      </c>
+      <c r="AC70">
+        <v>2.2842820245464</v>
+      </c>
+      <c r="AD70">
+        <v>1.822681587192766</v>
+      </c>
+      <c r="AE70">
+        <v>1.600948038060584</v>
+      </c>
+      <c r="AL70">
+        <v>2.163438161413374</v>
+      </c>
+      <c r="AM70">
+        <v>1.992839869871517</v>
+      </c>
+      <c r="AN70">
+        <v>1.555702405831527</v>
+      </c>
+      <c r="AO70">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71">
+        <v>0.2720912694373934</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>2.13623577849229</v>
+      </c>
+      <c r="S71">
+        <v>2.07285510446256</v>
+      </c>
+      <c r="T71">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U71">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>0.2562043185914002</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>2.084604638707107</v>
+      </c>
+      <c r="T72">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U72">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AC72">
+        <v>0.0743879217017982</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>1.544471654228024</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>2.132405106485074</v>
+      </c>
+      <c r="J73">
+        <v>1.594636678357169</v>
+      </c>
+      <c r="K73">
+        <v>1.548950457206141</v>
+      </c>
+      <c r="S73">
+        <v>2.072639278426438</v>
+      </c>
+      <c r="T73">
+        <v>1.552363339533482</v>
+      </c>
+      <c r="U73">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="AC73">
+        <v>2.287804879884472</v>
+      </c>
+      <c r="AD73">
+        <v>1.824463825156793</v>
+      </c>
+      <c r="AE73">
+        <v>1.600718783121651</v>
+      </c>
+      <c r="AM73">
+        <v>1.998802160999366</v>
+      </c>
+      <c r="AN73">
+        <v>1.555778102485396</v>
+      </c>
+      <c r="AO73">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74">
+        <v>2.132306867214623</v>
+      </c>
+      <c r="J74">
+        <v>1.592701232938321</v>
+      </c>
+      <c r="K74">
+        <v>1.549041475795162</v>
+      </c>
+      <c r="S74">
+        <v>2.072775682891</v>
+      </c>
+      <c r="T74">
+        <v>1.552363339533482</v>
+      </c>
+      <c r="U74">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AC74">
+        <v>2.287395493088987</v>
+      </c>
+      <c r="AD74">
+        <v>1.822664146809507</v>
+      </c>
+      <c r="AE74">
+        <v>1.600721688855484</v>
+      </c>
+      <c r="AM74">
+        <v>1.998552136500124</v>
+      </c>
+      <c r="AN74">
+        <v>1.555791635376331</v>
+      </c>
+      <c r="AO74">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>2.000321835238443</v>
+      </c>
+      <c r="J75">
+        <v>1.595692838835486</v>
+      </c>
+      <c r="K75">
+        <v>1.549041475795162</v>
+      </c>
+      <c r="S75">
+        <v>2.067221720621182</v>
+      </c>
+      <c r="T75">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U75">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>2.034956648052577</v>
+      </c>
+      <c r="J76">
+        <v>1.592770598282741</v>
+      </c>
+      <c r="K76">
+        <v>1.544564447424212</v>
+      </c>
+      <c r="S76">
+        <v>2.067127325370578</v>
+      </c>
+      <c r="T76">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U76">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>2.089010397087547</v>
+      </c>
+      <c r="J77">
+        <v>1.594681954810849</v>
+      </c>
+      <c r="K77">
+        <v>1.548995966558204</v>
+      </c>
+      <c r="S77">
+        <v>2.084613597141671</v>
+      </c>
+      <c r="T77">
+        <v>1.552408840266605</v>
+      </c>
+      <c r="U77">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="AC77">
+        <v>0.3169349769728635</v>
+      </c>
+      <c r="AD77">
+        <v>0.003736209754408693</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78">
+        <v>1.937513042412211</v>
+      </c>
+      <c r="J78">
+        <v>1.592892206957079</v>
+      </c>
+      <c r="K78">
+        <v>1.474637277788305</v>
+      </c>
+      <c r="S78">
+        <v>2.075831473939265</v>
+      </c>
+      <c r="T78">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U78">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79">
+        <v>0.03250069679899226</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>2.072403800028799</v>
+      </c>
+      <c r="T79">
+        <v>1.552272337723035</v>
+      </c>
+      <c r="U79">
+        <v>1.544125812096084</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80">
+        <v>2.105806579952031</v>
+      </c>
+      <c r="J80">
+        <v>1.592838972725448</v>
+      </c>
+      <c r="K80">
+        <v>1.548995966558204</v>
+      </c>
+      <c r="S80">
+        <v>2.072623167774573</v>
+      </c>
+      <c r="T80">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U80">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AC80">
+        <v>0.3818445286956873</v>
+      </c>
+      <c r="AD80">
+        <v>0.07797762795095387</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>2.132355986955667</v>
+      </c>
+      <c r="J81">
+        <v>1.592686942480363</v>
+      </c>
+      <c r="K81">
+        <v>1.548995966558204</v>
+      </c>
+      <c r="S81">
+        <v>2.081514877361168</v>
+      </c>
+      <c r="T81">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U81">
+        <v>1.544171333677916</v>
+      </c>
+      <c r="AC81">
+        <v>2.28768677505058</v>
+      </c>
+      <c r="AD81">
+        <v>1.832180441182791</v>
+      </c>
+      <c r="AE81">
+        <v>1.600586575366547</v>
+      </c>
+      <c r="AM81">
+        <v>1.998827606546172</v>
+      </c>
+      <c r="AN81">
+        <v>1.555681170361875</v>
+      </c>
+      <c r="AO81">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82">
+        <v>1.592899753235564</v>
+      </c>
+      <c r="K82">
+        <v>1.549041475795162</v>
+      </c>
+      <c r="T82">
+        <v>1.552363339533482</v>
+      </c>
+      <c r="U82">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="AD82">
+        <v>1.822877784368935</v>
+      </c>
+      <c r="AE82">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AN82">
+        <v>1.555601295928226</v>
+      </c>
+      <c r="AO82">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="J83">
+        <v>1.592783979377624</v>
+      </c>
+      <c r="K83">
+        <v>1.548904947738966</v>
+      </c>
+      <c r="T83">
+        <v>1.552363339533482</v>
+      </c>
+      <c r="U83">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="AD83">
+        <v>1.822571827316832</v>
+      </c>
+      <c r="AE83">
+        <v>1.600502204076433</v>
+      </c>
+      <c r="AN83">
+        <v>1.555679706342942</v>
+      </c>
+      <c r="AO83">
+        <v>1.547812685980611</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84">
+        <v>1.594011023034797</v>
+      </c>
+      <c r="K84">
+        <v>1.548358825152443</v>
+      </c>
+      <c r="T84">
+        <v>1.552272337723035</v>
+      </c>
+      <c r="U84">
+        <v>1.544125812096084</v>
+      </c>
+      <c r="AD84">
+        <v>0.03628457847185462</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <v>1.594643416745638</v>
+      </c>
+      <c r="K85">
+        <v>1.548904947738966</v>
+      </c>
+      <c r="T85">
+        <v>1.552408840266605</v>
+      </c>
+      <c r="U85">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="AD85">
+        <v>1.827251961654347</v>
+      </c>
+      <c r="AE85">
+        <v>1.60068485891186</v>
+      </c>
+      <c r="AN85">
+        <v>1.555763178337981</v>
+      </c>
+      <c r="AO85">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86">
+        <v>1.592750279451697</v>
+      </c>
+      <c r="K86">
+        <v>1.549086984917021</v>
+      </c>
+      <c r="T86">
+        <v>1.552317838685629</v>
+      </c>
+      <c r="U86">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AD86">
+        <v>1.825008790203746</v>
+      </c>
+      <c r="AE86">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AN86">
+        <v>1.554034990031618</v>
+      </c>
+      <c r="AO86">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87">
+        <v>1.592799295148452</v>
+      </c>
+      <c r="K87">
+        <v>1.548995966558204</v>
+      </c>
+      <c r="T87">
+        <v>1.552454340884998</v>
+      </c>
+      <c r="U87">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="AD87">
+        <v>1.823262063061766</v>
+      </c>
+      <c r="AE87">
+        <v>1.600594721772856</v>
+      </c>
+      <c r="AN87">
+        <v>1.555769488953761</v>
+      </c>
+      <c r="AO87">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <v>1.592856572382561</v>
+      </c>
+      <c r="K88">
+        <v>1.549041475795162</v>
+      </c>
+      <c r="T88">
+        <v>1.552408840266605</v>
+      </c>
+      <c r="U88">
+        <v>1.544307897729585</v>
+      </c>
+      <c r="AD88">
+        <v>1.825119085117732</v>
+      </c>
+      <c r="AE88">
+        <v>1.600596475216893</v>
+      </c>
+      <c r="AN88">
+        <v>1.555667258192008</v>
+      </c>
+      <c r="AO88">
+        <v>1.547676148595179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="J89">
+        <v>1.592642904416588</v>
+      </c>
+      <c r="K89">
+        <v>1.531916823868341</v>
+      </c>
+      <c r="T89">
+        <v>1.552317838685629</v>
+      </c>
+      <c r="U89">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90">
+        <v>1.592661691284587</v>
+      </c>
+      <c r="K90">
+        <v>1.549041475795162</v>
+      </c>
+      <c r="T90">
+        <v>1.552317838685629</v>
+      </c>
+      <c r="U90">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="AD90">
+        <v>1.832515924162416</v>
+      </c>
+      <c r="AE90">
+        <v>1.60052129776342</v>
+      </c>
+      <c r="AN90">
+        <v>1.555770828520844</v>
+      </c>
+      <c r="AO90">
+        <v>1.547858198211943</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="J91">
+        <v>1.592722358523228</v>
+      </c>
+      <c r="K91">
+        <v>1.548995966558204</v>
+      </c>
+      <c r="T91">
+        <v>1.552317838685629</v>
+      </c>
+      <c r="U91">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AD91">
+        <v>1.833021356650514</v>
+      </c>
+      <c r="AE91">
+        <v>1.600774995637184</v>
+      </c>
+      <c r="AN91">
+        <v>1.555444312431578</v>
+      </c>
+      <c r="AO91">
+        <v>1.547858198211943</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="K92">
+        <v>1.548995966558204</v>
+      </c>
+      <c r="U92">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AE92">
+        <v>1.600827912863148</v>
+      </c>
+      <c r="AO92">
+        <v>1.547767173634044</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="K93">
+        <v>1.549086984917021</v>
+      </c>
+      <c r="U93">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AE93">
+        <v>1.60072992732623</v>
+      </c>
+      <c r="AO93">
+        <v>1.523624401887665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94">
+        <v>1.544618646792346</v>
+      </c>
+      <c r="U94">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="K95">
+        <v>1.548950457206141</v>
+      </c>
+      <c r="U95">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="K96">
+        <v>1.540022553705514</v>
+      </c>
+      <c r="U96">
+        <v>1.544125812096084</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="K97">
+        <v>1.548904947738966</v>
+      </c>
+      <c r="U97">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="AE97">
+        <v>1.600820063844728</v>
+      </c>
+      <c r="AO97">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="K98">
+        <v>1.526907087728807</v>
+      </c>
+      <c r="U98">
+        <v>1.544262376494662</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>1.547630635902873</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="K100">
+        <v>1.548950457206141</v>
+      </c>
+      <c r="U100">
+        <v>1.544216855144106</v>
+      </c>
+      <c r="AE100">
+        <v>1.600639790394071</v>
+      </c>
+      <c r="AO100">
+        <v>1.547721661172235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="K101">
+        <v>1.548995966558204</v>
+      </c>
+      <c r="U101">
+        <v>1.544353418848886</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>30</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="G102">
+        <v>60</v>
+      </c>
+      <c r="H102">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>80</v>
+      </c>
+      <c r="J102">
+        <v>90</v>
+      </c>
+      <c r="K102">
+        <v>100</v>
+      </c>
+      <c r="L102">
+        <v>10</v>
+      </c>
+      <c r="M102">
+        <v>20</v>
+      </c>
+      <c r="N102">
+        <v>30</v>
+      </c>
+      <c r="O102">
+        <v>40</v>
+      </c>
+      <c r="P102">
+        <v>50</v>
+      </c>
+      <c r="Q102">
+        <v>60</v>
+      </c>
+      <c r="R102">
+        <v>70</v>
+      </c>
+      <c r="S102">
+        <v>80</v>
+      </c>
+      <c r="T102">
+        <v>90</v>
+      </c>
+      <c r="U102">
+        <v>100</v>
+      </c>
+      <c r="V102">
+        <v>10</v>
+      </c>
+      <c r="W102">
+        <v>20</v>
+      </c>
+      <c r="X102">
+        <v>30</v>
+      </c>
+      <c r="Y102">
+        <v>40</v>
+      </c>
+      <c r="Z102">
+        <v>50</v>
+      </c>
+      <c r="AA102">
+        <v>60</v>
+      </c>
+      <c r="AB102">
+        <v>70</v>
+      </c>
+      <c r="AC102">
+        <v>80</v>
+      </c>
+      <c r="AD102">
+        <v>90</v>
+      </c>
+      <c r="AE102">
+        <v>100</v>
+      </c>
+      <c r="AF102">
+        <v>10</v>
+      </c>
+      <c r="AG102">
+        <v>20</v>
+      </c>
+      <c r="AH102">
+        <v>30</v>
+      </c>
+      <c r="AI102">
+        <v>40</v>
+      </c>
+      <c r="AJ102">
+        <v>50</v>
+      </c>
+      <c r="AK102">
+        <v>60</v>
+      </c>
+      <c r="AL102">
+        <v>70</v>
+      </c>
+      <c r="AM102">
+        <v>80</v>
+      </c>
+      <c r="AN102">
+        <v>90</v>
+      </c>
+      <c r="AO102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="C103">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D103">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="E103">
+        <v>0.925</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <v>1</v>
       </c>
-      <c r="F55">
+      <c r="M103">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="N103">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="O103">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
         <v>1</v>
       </c>
-      <c r="J55">
+      <c r="W103">
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="X103">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y103">
+        <v>0.525</v>
+      </c>
+      <c r="Z103">
+        <v>0.46</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
         <v>1</v>
       </c>
-      <c r="L55">
+      <c r="AG103">
         <v>1</v>
       </c>
-      <c r="M55">
+      <c r="AH103">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AI103">
+        <v>0.575</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
         <v>1</v>
       </c>
-      <c r="N55">
+      <c r="C104">
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="D104">
         <v>1</v>
       </c>
-      <c r="P55">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>1</v>
       </c>
-      <c r="Q55">
+      <c r="M104">
         <v>1</v>
       </c>
-      <c r="R55">
+      <c r="N104">
         <v>1</v>
       </c>
-      <c r="S55">
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
         <v>1</v>
       </c>
-      <c r="T55">
+      <c r="W104">
         <v>1</v>
       </c>
-      <c r="U55">
+      <c r="X104">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AG104">
+        <v>1</v>
+      </c>
+      <c r="AH104">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0.075</v>
+      </c>
+      <c r="F105">
+        <v>0.12</v>
+      </c>
+      <c r="G105">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="H105">
+        <v>0.1285714285714286</v>
+      </c>
+      <c r="I105">
+        <v>0.25</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y105">
+        <v>0.45</v>
+      </c>
+      <c r="Z105">
+        <v>0.54</v>
+      </c>
+      <c r="AA105">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="AB105">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AC105">
+        <v>0.5875</v>
+      </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
+      <c r="AE105">
+        <v>1</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0.2</v>
+      </c>
+      <c r="AI105">
+        <v>0.425</v>
+      </c>
+      <c r="AJ105">
+        <v>0.5</v>
+      </c>
+      <c r="AK105">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AL105">
+        <v>0.5</v>
+      </c>
+      <c r="AM105">
+        <v>0.8625</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>1</v>
       </c>
     </row>
